--- a/Grille_allocation_ab.xlsx
+++ b/Grille_allocation_ab.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louau\Projets\Ademe_RCP_FAI\modele-rcp-fai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F880A727-DF36-4AFB-A5AE-4C682B72EDDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5C54CE-AD72-419D-ACD8-1971E4756D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="89">
   <si>
     <t>Fabrication</t>
   </si>
@@ -297,6 +297,12 @@
   </si>
   <si>
     <t>Fibre optique 6 brins</t>
+  </si>
+  <si>
+    <t>Boucle locale cuivre</t>
+  </si>
+  <si>
+    <t>Boucle locale fibre</t>
   </si>
 </sst>
 </file>
@@ -852,7 +858,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -999,6 +1005,66 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1008,32 +1074,53 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1041,84 +1128,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1399,10 +1409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32657AA7-A293-41FC-8E8B-58993E82175E}">
-  <dimension ref="A1:AJ48"/>
+  <dimension ref="A1:AJ50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="AA35" sqref="AA35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1443,130 +1453,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="31" x14ac:dyDescent="0.35">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="82" t="s">
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="83"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
-      <c r="W1" s="74"/>
-      <c r="X1" s="75"/>
-      <c r="Y1" s="82" t="s">
+      <c r="N1" s="87"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
+      <c r="W1" s="78"/>
+      <c r="X1" s="79"/>
+      <c r="Y1" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="Z1" s="83"/>
-      <c r="AA1" s="74"/>
-      <c r="AB1" s="74"/>
-      <c r="AC1" s="74"/>
-      <c r="AD1" s="74"/>
-      <c r="AE1" s="74"/>
-      <c r="AF1" s="74"/>
-      <c r="AG1" s="74"/>
-      <c r="AH1" s="74"/>
-      <c r="AI1" s="74"/>
-      <c r="AJ1" s="75"/>
+      <c r="Z1" s="87"/>
+      <c r="AA1" s="78"/>
+      <c r="AB1" s="78"/>
+      <c r="AC1" s="78"/>
+      <c r="AD1" s="78"/>
+      <c r="AE1" s="78"/>
+      <c r="AF1" s="78"/>
+      <c r="AG1" s="78"/>
+      <c r="AH1" s="78"/>
+      <c r="AI1" s="78"/>
+      <c r="AJ1" s="79"/>
     </row>
     <row r="2" spans="1:36" ht="26" x14ac:dyDescent="0.4">
-      <c r="A2" s="88"/>
-      <c r="B2" s="89"/>
-      <c r="C2" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="77"/>
-      <c r="E2" s="64" t="s">
+      <c r="A2" s="52"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="81"/>
+      <c r="E2" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="65"/>
-      <c r="G2" s="66" t="s">
+      <c r="F2" s="92"/>
+      <c r="G2" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="67"/>
-      <c r="I2" s="80" t="s">
+      <c r="H2" s="66"/>
+      <c r="I2" s="84" t="s">
         <v>79</v>
       </c>
-      <c r="J2" s="81"/>
-      <c r="K2" s="68" t="s">
+      <c r="J2" s="85"/>
+      <c r="K2" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="69"/>
+      <c r="L2" s="68"/>
       <c r="M2" s="1"/>
       <c r="N2" s="2"/>
-      <c r="O2" s="84" t="str">
+      <c r="O2" s="88" t="str">
         <f>C2</f>
         <v>Fabrication</v>
       </c>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="78" t="str">
+      <c r="P2" s="57"/>
+      <c r="Q2" s="82" t="str">
         <f>E2</f>
         <v>Distribution</v>
       </c>
-      <c r="R2" s="79"/>
-      <c r="S2" s="85" t="str">
+      <c r="R2" s="83"/>
+      <c r="S2" s="89" t="str">
         <f>G2</f>
         <v>Utilisation</v>
       </c>
-      <c r="T2" s="86"/>
-      <c r="U2" s="80" t="s">
+      <c r="T2" s="90"/>
+      <c r="U2" s="84" t="s">
         <v>79</v>
       </c>
-      <c r="V2" s="81"/>
-      <c r="W2" s="68" t="str">
+      <c r="V2" s="85"/>
+      <c r="W2" s="67" t="str">
         <f>K2</f>
         <v>Fin de vie</v>
       </c>
-      <c r="X2" s="69"/>
+      <c r="X2" s="68"/>
       <c r="Y2" s="1"/>
       <c r="Z2" s="3"/>
-      <c r="AA2" s="58" t="str">
+      <c r="AA2" s="57" t="str">
         <f>O2</f>
         <v>Fabrication</v>
       </c>
-      <c r="AB2" s="58"/>
-      <c r="AC2" s="78" t="str">
+      <c r="AB2" s="57"/>
+      <c r="AC2" s="82" t="str">
         <f>Q2</f>
         <v>Distribution</v>
       </c>
-      <c r="AD2" s="79"/>
-      <c r="AE2" s="85" t="str">
+      <c r="AD2" s="83"/>
+      <c r="AE2" s="89" t="str">
         <f>S2</f>
         <v>Utilisation</v>
       </c>
-      <c r="AF2" s="86"/>
-      <c r="AG2" s="80" t="s">
+      <c r="AF2" s="90"/>
+      <c r="AG2" s="84" t="s">
         <v>79</v>
       </c>
-      <c r="AH2" s="81"/>
-      <c r="AI2" s="68" t="str">
+      <c r="AH2" s="85"/>
+      <c r="AI2" s="67" t="str">
         <f>W2</f>
         <v>Fin de vie</v>
       </c>
-      <c r="AJ2" s="69"/>
+      <c r="AJ2" s="68"/>
     </row>
     <row r="3" spans="1:36" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="91" t="s">
+      <c r="B3" s="55" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -1699,7 +1709,7 @@
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="75" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="42" t="s">
@@ -1735,7 +1745,7 @@
       <c r="L4" s="32">
         <v>0</v>
       </c>
-      <c r="M4" s="70" t="s">
+      <c r="M4" s="69" t="s">
         <v>29</v>
       </c>
       <c r="N4" s="42" t="s">
@@ -1771,7 +1781,7 @@
       <c r="X4" s="19">
         <v>100</v>
       </c>
-      <c r="Y4" s="62" t="s">
+      <c r="Y4" s="58" t="s">
         <v>14</v>
       </c>
       <c r="Z4" s="42" t="s">
@@ -1809,7 +1819,7 @@
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A5" s="56"/>
+      <c r="A5" s="61"/>
       <c r="B5" s="43" t="s">
         <v>19</v>
       </c>
@@ -1843,7 +1853,7 @@
       <c r="L5" s="17">
         <v>100</v>
       </c>
-      <c r="M5" s="71"/>
+      <c r="M5" s="70"/>
       <c r="N5" s="43" t="s">
         <v>32</v>
       </c>
@@ -1877,7 +1887,7 @@
       <c r="X5" s="17">
         <v>100</v>
       </c>
-      <c r="Y5" s="63"/>
+      <c r="Y5" s="59"/>
       <c r="Z5" s="43" t="s">
         <v>21</v>
       </c>
@@ -1913,7 +1923,7 @@
       </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A6" s="56"/>
+      <c r="A6" s="61"/>
       <c r="B6" s="43" t="s">
         <v>22</v>
       </c>
@@ -1947,7 +1957,7 @@
       <c r="L6" s="17">
         <v>100</v>
       </c>
-      <c r="M6" s="71"/>
+      <c r="M6" s="70"/>
       <c r="N6" s="43" t="s">
         <v>35</v>
       </c>
@@ -1981,7 +1991,7 @@
       <c r="X6" s="17">
         <v>100</v>
       </c>
-      <c r="Y6" s="63"/>
+      <c r="Y6" s="59"/>
       <c r="Z6" s="43" t="s">
         <v>24</v>
       </c>
@@ -2017,7 +2027,7 @@
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A7" s="56"/>
+      <c r="A7" s="61"/>
       <c r="B7" s="43" t="s">
         <v>25</v>
       </c>
@@ -2051,7 +2061,7 @@
       <c r="L7" s="17">
         <v>100</v>
       </c>
-      <c r="M7" s="71"/>
+      <c r="M7" s="70"/>
       <c r="N7" s="43" t="s">
         <v>38</v>
       </c>
@@ -2085,7 +2095,7 @@
       <c r="X7" s="17">
         <v>100</v>
       </c>
-      <c r="Y7" s="63"/>
+      <c r="Y7" s="59"/>
       <c r="Z7" s="43" t="s">
         <v>27</v>
       </c>
@@ -2121,7 +2131,7 @@
       </c>
     </row>
     <row r="8" spans="1:36" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="56"/>
+      <c r="A8" s="61"/>
       <c r="B8" s="43" t="s">
         <v>28</v>
       </c>
@@ -2155,7 +2165,7 @@
       <c r="L8" s="17">
         <v>100</v>
       </c>
-      <c r="M8" s="71"/>
+      <c r="M8" s="70"/>
       <c r="N8" s="43" t="s">
         <v>41</v>
       </c>
@@ -2189,7 +2199,7 @@
       <c r="X8" s="17">
         <v>100</v>
       </c>
-      <c r="Y8" s="63"/>
+      <c r="Y8" s="59"/>
       <c r="Z8" s="43" t="s">
         <v>31</v>
       </c>
@@ -2225,7 +2235,7 @@
       </c>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A9" s="56"/>
+      <c r="A9" s="61"/>
       <c r="B9" s="43" t="s">
         <v>7</v>
       </c>
@@ -2259,7 +2269,7 @@
       <c r="L9" s="17">
         <v>100</v>
       </c>
-      <c r="M9" s="71"/>
+      <c r="M9" s="70"/>
       <c r="N9" s="43" t="s">
         <v>44</v>
       </c>
@@ -2293,7 +2303,7 @@
       <c r="X9" s="17">
         <v>100</v>
       </c>
-      <c r="Y9" s="63"/>
+      <c r="Y9" s="59"/>
       <c r="Z9" s="43" t="s">
         <v>33</v>
       </c>
@@ -2329,7 +2339,7 @@
       </c>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A10" s="56"/>
+      <c r="A10" s="61"/>
       <c r="B10" s="43" t="s">
         <v>34</v>
       </c>
@@ -2363,7 +2373,7 @@
       <c r="L10" s="17">
         <v>100</v>
       </c>
-      <c r="M10" s="71"/>
+      <c r="M10" s="70"/>
       <c r="N10" s="43" t="s">
         <v>47</v>
       </c>
@@ -2397,7 +2407,7 @@
       <c r="X10" s="17">
         <v>100</v>
       </c>
-      <c r="Y10" s="63"/>
+      <c r="Y10" s="59"/>
       <c r="Z10" s="43" t="s">
         <v>36</v>
       </c>
@@ -2433,7 +2443,7 @@
       </c>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A11" s="56"/>
+      <c r="A11" s="61"/>
       <c r="B11" s="43" t="s">
         <v>37</v>
       </c>
@@ -2467,7 +2477,7 @@
       <c r="L11" s="17">
         <v>100</v>
       </c>
-      <c r="M11" s="71"/>
+      <c r="M11" s="70"/>
       <c r="N11" s="43" t="s">
         <v>50</v>
       </c>
@@ -2501,7 +2511,7 @@
       <c r="X11" s="17">
         <v>100</v>
       </c>
-      <c r="Y11" s="63"/>
+      <c r="Y11" s="59"/>
       <c r="Z11" s="43" t="s">
         <v>39</v>
       </c>
@@ -2537,7 +2547,7 @@
       </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A12" s="56"/>
+      <c r="A12" s="61"/>
       <c r="B12" s="43" t="s">
         <v>40</v>
       </c>
@@ -2571,7 +2581,7 @@
       <c r="L12" s="17">
         <v>100</v>
       </c>
-      <c r="M12" s="72"/>
+      <c r="M12" s="71"/>
       <c r="N12" s="45" t="s">
         <v>53</v>
       </c>
@@ -2605,7 +2615,7 @@
       <c r="X12" s="17">
         <v>100</v>
       </c>
-      <c r="Y12" s="52" t="s">
+      <c r="Y12" s="72" t="s">
         <v>16</v>
       </c>
       <c r="Z12" s="44" t="s">
@@ -2643,7 +2653,7 @@
       </c>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A13" s="56"/>
+      <c r="A13" s="61"/>
       <c r="B13" s="43" t="s">
         <v>43</v>
       </c>
@@ -2713,7 +2723,7 @@
       <c r="X13" s="21">
         <v>100</v>
       </c>
-      <c r="Y13" s="53"/>
+      <c r="Y13" s="73"/>
       <c r="Z13" s="43" t="s">
         <v>17</v>
       </c>
@@ -2749,7 +2759,7 @@
       </c>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A14" s="56"/>
+      <c r="A14" s="61"/>
       <c r="B14" s="43" t="s">
         <v>85</v>
       </c>
@@ -2819,7 +2829,7 @@
       <c r="X14" s="21">
         <v>100</v>
       </c>
-      <c r="Y14" s="54"/>
+      <c r="Y14" s="74"/>
       <c r="Z14" s="45" t="s">
         <v>20</v>
       </c>
@@ -2855,7 +2865,7 @@
       </c>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A15" s="56"/>
+      <c r="A15" s="61"/>
       <c r="B15" s="43" t="s">
         <v>86</v>
       </c>
@@ -2925,7 +2935,7 @@
       <c r="X15" s="21">
         <v>100</v>
       </c>
-      <c r="Y15" s="52" t="s">
+      <c r="Y15" s="72" t="s">
         <v>23</v>
       </c>
       <c r="Z15" s="44" t="s">
@@ -2963,44 +2973,53 @@
       </c>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A16" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="30">
-        <v>100</v>
-      </c>
-      <c r="D16" s="12">
-        <v>0</v>
-      </c>
-      <c r="E16" s="12">
-        <v>100</v>
-      </c>
-      <c r="F16" s="12">
-        <v>0</v>
-      </c>
-      <c r="G16" s="12">
+      <c r="A16" s="61"/>
+      <c r="B16" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="16">
+        <v>0</v>
+      </c>
+      <c r="D16" s="16">
+        <v>100</v>
+      </c>
+      <c r="E16" s="16">
+        <v>0</v>
+      </c>
+      <c r="F16" s="16">
+        <v>100</v>
+      </c>
+      <c r="G16" s="16">
         <v>20</v>
       </c>
-      <c r="H16" s="12">
+      <c r="H16" s="16">
         <v>80</v>
       </c>
-      <c r="I16" s="12">
-        <v>100</v>
-      </c>
-      <c r="J16" s="12">
-        <v>0</v>
-      </c>
-      <c r="K16" s="12">
-        <v>100</v>
-      </c>
-      <c r="L16" s="19">
-        <v>0</v>
-      </c>
-      <c r="N16" s="23"/>
-      <c r="Y16" s="53"/>
+      <c r="I16" s="16">
+        <v>0</v>
+      </c>
+      <c r="J16" s="16">
+        <v>100</v>
+      </c>
+      <c r="K16" s="16">
+        <v>0</v>
+      </c>
+      <c r="L16" s="17">
+        <v>100</v>
+      </c>
+      <c r="M16" s="56"/>
+      <c r="N16" s="44"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="16"/>
+      <c r="T16" s="16"/>
+      <c r="U16" s="16"/>
+      <c r="V16" s="16"/>
+      <c r="W16" s="16"/>
+      <c r="X16" s="16"/>
+      <c r="Y16" s="73"/>
       <c r="Z16" s="43" t="s">
         <v>26</v>
       </c>
@@ -3036,42 +3055,53 @@
       </c>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A17" s="60"/>
+      <c r="A17" s="62"/>
       <c r="B17" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="16">
+        <v>0</v>
+      </c>
+      <c r="D17" s="16">
+        <v>100</v>
+      </c>
+      <c r="E17" s="16">
+        <v>0</v>
+      </c>
+      <c r="F17" s="16">
+        <v>100</v>
+      </c>
+      <c r="G17" s="16">
         <v>20</v>
       </c>
-      <c r="C17" s="33">
-        <v>100</v>
-      </c>
-      <c r="D17" s="13">
-        <v>0</v>
-      </c>
-      <c r="E17" s="13">
-        <v>100</v>
-      </c>
-      <c r="F17" s="13">
-        <v>0</v>
-      </c>
-      <c r="G17" s="13">
-        <v>20</v>
-      </c>
-      <c r="H17" s="13">
+      <c r="H17" s="16">
         <v>80</v>
       </c>
-      <c r="I17" s="13">
-        <v>100</v>
-      </c>
-      <c r="J17" s="13">
-        <v>0</v>
-      </c>
-      <c r="K17" s="13">
-        <v>100</v>
-      </c>
-      <c r="L17" s="18">
-        <v>0</v>
-      </c>
-      <c r="N17" s="22"/>
-      <c r="Y17" s="53"/>
+      <c r="I17" s="16">
+        <v>0</v>
+      </c>
+      <c r="J17" s="16">
+        <v>100</v>
+      </c>
+      <c r="K17" s="16">
+        <v>0</v>
+      </c>
+      <c r="L17" s="17">
+        <v>100</v>
+      </c>
+      <c r="M17" s="56"/>
+      <c r="N17" s="43"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
+      <c r="S17" s="16"/>
+      <c r="T17" s="16"/>
+      <c r="U17" s="16"/>
+      <c r="V17" s="16"/>
+      <c r="W17" s="16"/>
+      <c r="X17" s="16"/>
+      <c r="Y17" s="73"/>
       <c r="Z17" s="50" t="s">
         <v>45</v>
       </c>
@@ -3107,54 +3137,44 @@
       </c>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A18" s="59" t="s">
-        <v>23</v>
+      <c r="A18" s="63" t="s">
+        <v>16</v>
       </c>
       <c r="B18" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="16">
-        <v>100</v>
-      </c>
-      <c r="D18" s="16">
-        <v>0</v>
-      </c>
-      <c r="E18" s="16">
-        <v>100</v>
-      </c>
-      <c r="F18" s="16">
-        <v>0</v>
-      </c>
-      <c r="G18" s="16">
+        <v>17</v>
+      </c>
+      <c r="C18" s="30">
+        <v>100</v>
+      </c>
+      <c r="D18" s="12">
+        <v>0</v>
+      </c>
+      <c r="E18" s="12">
+        <v>100</v>
+      </c>
+      <c r="F18" s="12">
+        <v>0</v>
+      </c>
+      <c r="G18" s="12">
         <v>20</v>
       </c>
-      <c r="H18" s="16">
+      <c r="H18" s="12">
         <v>80</v>
       </c>
-      <c r="I18" s="16">
-        <v>100</v>
-      </c>
-      <c r="J18" s="16">
-        <v>0</v>
-      </c>
-      <c r="K18" s="16">
-        <v>100</v>
-      </c>
-      <c r="L18" s="17">
+      <c r="I18" s="12">
+        <v>100</v>
+      </c>
+      <c r="J18" s="12">
+        <v>0</v>
+      </c>
+      <c r="K18" s="12">
+        <v>100</v>
+      </c>
+      <c r="L18" s="19">
         <v>0</v>
       </c>
       <c r="N18" s="22"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="16"/>
-      <c r="S18" s="16"/>
-      <c r="T18" s="16"/>
-      <c r="U18" s="16"/>
-      <c r="V18" s="16"/>
-      <c r="W18" s="16"/>
-      <c r="X18" s="17"/>
-      <c r="Y18" s="53"/>
+      <c r="Y18" s="73"/>
       <c r="Z18" s="43" t="s">
         <v>48</v>
       </c>
@@ -3190,52 +3210,42 @@
       </c>
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A19" s="60"/>
-      <c r="B19" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="16">
-        <v>100</v>
-      </c>
-      <c r="D19" s="16">
-        <v>0</v>
-      </c>
-      <c r="E19" s="16">
-        <v>100</v>
-      </c>
-      <c r="F19" s="16">
-        <v>0</v>
-      </c>
-      <c r="G19" s="16">
+      <c r="A19" s="64"/>
+      <c r="B19" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="H19" s="16">
+      <c r="C19" s="33">
+        <v>100</v>
+      </c>
+      <c r="D19" s="13">
+        <v>0</v>
+      </c>
+      <c r="E19" s="13">
+        <v>100</v>
+      </c>
+      <c r="F19" s="13">
+        <v>0</v>
+      </c>
+      <c r="G19" s="13">
+        <v>20</v>
+      </c>
+      <c r="H19" s="13">
         <v>80</v>
       </c>
-      <c r="I19" s="16">
-        <v>100</v>
-      </c>
-      <c r="J19" s="16">
-        <v>0</v>
-      </c>
-      <c r="K19" s="16">
-        <v>100</v>
-      </c>
-      <c r="L19" s="17">
+      <c r="I19" s="13">
+        <v>100</v>
+      </c>
+      <c r="J19" s="13">
+        <v>0</v>
+      </c>
+      <c r="K19" s="13">
+        <v>100</v>
+      </c>
+      <c r="L19" s="18">
         <v>0</v>
       </c>
       <c r="N19" s="22"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="16"/>
-      <c r="R19" s="16"/>
-      <c r="S19" s="16"/>
-      <c r="T19" s="16"/>
-      <c r="U19" s="16"/>
-      <c r="V19" s="16"/>
-      <c r="W19" s="16"/>
-      <c r="X19" s="17"/>
-      <c r="Y19" s="53"/>
+      <c r="Y19" s="73"/>
       <c r="Z19" s="43" t="s">
         <v>51</v>
       </c>
@@ -3271,41 +3281,41 @@
       </c>
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A20" s="55" t="s">
-        <v>46</v>
+      <c r="A20" s="63" t="s">
+        <v>23</v>
       </c>
       <c r="B20" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="12">
-        <v>0</v>
-      </c>
-      <c r="D20" s="12">
-        <v>100</v>
-      </c>
-      <c r="E20" s="12">
-        <v>0</v>
-      </c>
-      <c r="F20" s="12">
-        <v>100</v>
-      </c>
-      <c r="G20" s="12">
-        <v>0</v>
-      </c>
-      <c r="H20" s="12">
-        <v>100</v>
-      </c>
-      <c r="I20" s="12">
-        <v>0</v>
-      </c>
-      <c r="J20" s="12">
-        <v>100</v>
-      </c>
-      <c r="K20" s="12">
-        <v>0</v>
-      </c>
-      <c r="L20" s="19">
-        <v>100</v>
+        <v>8</v>
+      </c>
+      <c r="C20" s="16">
+        <v>100</v>
+      </c>
+      <c r="D20" s="16">
+        <v>0</v>
+      </c>
+      <c r="E20" s="16">
+        <v>100</v>
+      </c>
+      <c r="F20" s="16">
+        <v>0</v>
+      </c>
+      <c r="G20" s="16">
+        <v>20</v>
+      </c>
+      <c r="H20" s="16">
+        <v>80</v>
+      </c>
+      <c r="I20" s="16">
+        <v>100</v>
+      </c>
+      <c r="J20" s="16">
+        <v>0</v>
+      </c>
+      <c r="K20" s="16">
+        <v>100</v>
+      </c>
+      <c r="L20" s="17">
+        <v>0</v>
       </c>
       <c r="N20" s="22"/>
       <c r="O20" s="16"/>
@@ -3318,7 +3328,7 @@
       <c r="V20" s="16"/>
       <c r="W20" s="16"/>
       <c r="X20" s="17"/>
-      <c r="Y20" s="53"/>
+      <c r="Y20" s="73"/>
       <c r="Z20" s="43" t="s">
         <v>54</v>
       </c>
@@ -3354,39 +3364,39 @@
       </c>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A21" s="56"/>
-      <c r="B21" s="46" t="s">
-        <v>49</v>
+      <c r="A21" s="64"/>
+      <c r="B21" s="45" t="s">
+        <v>26</v>
       </c>
       <c r="C21" s="16">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D21" s="16">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E21" s="16">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F21" s="16">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G21" s="16">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H21" s="16">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I21" s="16">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J21" s="16">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K21" s="16">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L21" s="17">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N21" s="22"/>
       <c r="O21" s="16"/>
@@ -3399,7 +3409,7 @@
       <c r="V21" s="16"/>
       <c r="W21" s="16"/>
       <c r="X21" s="17"/>
-      <c r="Y21" s="53"/>
+      <c r="Y21" s="73"/>
       <c r="Z21" s="43" t="s">
         <v>57</v>
       </c>
@@ -3435,38 +3445,40 @@
       </c>
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A22" s="57"/>
-      <c r="B22" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" s="13">
-        <v>0</v>
-      </c>
-      <c r="D22" s="13">
-        <v>100</v>
-      </c>
-      <c r="E22" s="13">
-        <v>0</v>
-      </c>
-      <c r="F22" s="13">
-        <v>100</v>
-      </c>
-      <c r="G22" s="13">
-        <v>0</v>
-      </c>
-      <c r="H22" s="13">
-        <v>100</v>
-      </c>
-      <c r="I22" s="13">
-        <v>0</v>
-      </c>
-      <c r="J22" s="13">
-        <v>100</v>
-      </c>
-      <c r="K22" s="13">
-        <v>0</v>
-      </c>
-      <c r="L22" s="18">
+      <c r="A22" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="12">
+        <v>0</v>
+      </c>
+      <c r="D22" s="12">
+        <v>100</v>
+      </c>
+      <c r="E22" s="12">
+        <v>0</v>
+      </c>
+      <c r="F22" s="12">
+        <v>100</v>
+      </c>
+      <c r="G22" s="12">
+        <v>0</v>
+      </c>
+      <c r="H22" s="12">
+        <v>100</v>
+      </c>
+      <c r="I22" s="12">
+        <v>0</v>
+      </c>
+      <c r="J22" s="12">
+        <v>100</v>
+      </c>
+      <c r="K22" s="12">
+        <v>0</v>
+      </c>
+      <c r="L22" s="19">
         <v>100</v>
       </c>
       <c r="N22" s="22"/>
@@ -3480,7 +3492,7 @@
       <c r="V22" s="16"/>
       <c r="W22" s="16"/>
       <c r="X22" s="17"/>
-      <c r="Y22" s="54"/>
+      <c r="Y22" s="74"/>
       <c r="Z22" s="45" t="s">
         <v>59</v>
       </c>
@@ -3516,40 +3528,38 @@
       </c>
     </row>
     <row r="23" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A23" s="55" t="s">
-        <v>55</v>
-      </c>
-      <c r="B23" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="12">
-        <v>0</v>
-      </c>
-      <c r="D23" s="12">
-        <v>100</v>
-      </c>
-      <c r="E23" s="12">
-        <v>0</v>
-      </c>
-      <c r="F23" s="12">
-        <v>100</v>
-      </c>
-      <c r="G23" s="12">
-        <v>0</v>
-      </c>
-      <c r="H23" s="12">
-        <v>100</v>
-      </c>
-      <c r="I23" s="12">
-        <v>0</v>
-      </c>
-      <c r="J23" s="12">
-        <v>100</v>
-      </c>
-      <c r="K23" s="12">
-        <v>0</v>
-      </c>
-      <c r="L23" s="19">
+      <c r="A23" s="61"/>
+      <c r="B23" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="16">
+        <v>0</v>
+      </c>
+      <c r="D23" s="16">
+        <v>100</v>
+      </c>
+      <c r="E23" s="16">
+        <v>0</v>
+      </c>
+      <c r="F23" s="16">
+        <v>100</v>
+      </c>
+      <c r="G23" s="16">
+        <v>0</v>
+      </c>
+      <c r="H23" s="16">
+        <v>100</v>
+      </c>
+      <c r="I23" s="16">
+        <v>0</v>
+      </c>
+      <c r="J23" s="16">
+        <v>100</v>
+      </c>
+      <c r="K23" s="16">
+        <v>0</v>
+      </c>
+      <c r="L23" s="17">
         <v>100</v>
       </c>
       <c r="N23" s="22"/>
@@ -3563,7 +3573,7 @@
       <c r="V23" s="16"/>
       <c r="W23" s="16"/>
       <c r="X23" s="17"/>
-      <c r="Y23" s="55" t="s">
+      <c r="Y23" s="60" t="s">
         <v>60</v>
       </c>
       <c r="Z23" s="43" t="s">
@@ -3600,39 +3610,39 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A24" s="56"/>
-      <c r="B24" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="16">
-        <v>0</v>
-      </c>
-      <c r="D24" s="16">
-        <v>100</v>
-      </c>
-      <c r="E24" s="16">
-        <v>0</v>
-      </c>
-      <c r="F24" s="16">
-        <v>100</v>
-      </c>
-      <c r="G24" s="16">
-        <v>0</v>
-      </c>
-      <c r="H24" s="16">
-        <v>100</v>
-      </c>
-      <c r="I24" s="16">
-        <v>0</v>
-      </c>
-      <c r="J24" s="16">
-        <v>100</v>
-      </c>
-      <c r="K24" s="16">
-        <v>0</v>
-      </c>
-      <c r="L24" s="17">
+    <row r="24" spans="1:36" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="62"/>
+      <c r="B24" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="13">
+        <v>0</v>
+      </c>
+      <c r="D24" s="13">
+        <v>100</v>
+      </c>
+      <c r="E24" s="13">
+        <v>0</v>
+      </c>
+      <c r="F24" s="13">
+        <v>100</v>
+      </c>
+      <c r="G24" s="13">
+        <v>0</v>
+      </c>
+      <c r="H24" s="13">
+        <v>100</v>
+      </c>
+      <c r="I24" s="13">
+        <v>0</v>
+      </c>
+      <c r="J24" s="13">
+        <v>100</v>
+      </c>
+      <c r="K24" s="13">
+        <v>0</v>
+      </c>
+      <c r="L24" s="18">
         <v>100</v>
       </c>
       <c r="N24" s="22"/>
@@ -3646,7 +3656,7 @@
       <c r="V24" s="16"/>
       <c r="W24" s="16"/>
       <c r="X24" s="17"/>
-      <c r="Y24" s="56"/>
+      <c r="Y24" s="61"/>
       <c r="Z24" s="46" t="s">
         <v>62</v>
       </c>
@@ -3682,42 +3692,43 @@
       </c>
     </row>
     <row r="25" spans="1:36" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="56"/>
-      <c r="B25" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" s="16">
-        <v>0</v>
-      </c>
-      <c r="D25" s="16">
-        <v>100</v>
-      </c>
-      <c r="E25" s="16">
-        <v>0</v>
-      </c>
-      <c r="F25" s="16">
-        <v>100</v>
-      </c>
-      <c r="G25" s="16">
-        <v>0</v>
-      </c>
-      <c r="H25" s="16">
-        <v>100</v>
-      </c>
-      <c r="I25" s="16">
-        <v>0</v>
-      </c>
-      <c r="J25" s="16">
-        <v>100</v>
-      </c>
-      <c r="K25" s="16">
-        <v>0</v>
-      </c>
-      <c r="L25" s="17">
-        <v>100</v>
-      </c>
-      <c r="M25" s="16"/>
-      <c r="N25" s="24"/>
+      <c r="A25" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="12">
+        <v>0</v>
+      </c>
+      <c r="D25" s="12">
+        <v>100</v>
+      </c>
+      <c r="E25" s="12">
+        <v>0</v>
+      </c>
+      <c r="F25" s="12">
+        <v>100</v>
+      </c>
+      <c r="G25" s="12">
+        <v>0</v>
+      </c>
+      <c r="H25" s="12">
+        <v>100</v>
+      </c>
+      <c r="I25" s="12">
+        <v>0</v>
+      </c>
+      <c r="J25" s="12">
+        <v>100</v>
+      </c>
+      <c r="K25" s="12">
+        <v>0</v>
+      </c>
+      <c r="L25" s="19">
+        <v>100</v>
+      </c>
+      <c r="N25" s="22"/>
       <c r="O25" s="16"/>
       <c r="P25" s="16"/>
       <c r="Q25" s="16"/>
@@ -3728,7 +3739,7 @@
       <c r="V25" s="16"/>
       <c r="W25" s="16"/>
       <c r="X25" s="17"/>
-      <c r="Y25" s="56"/>
+      <c r="Y25" s="61"/>
       <c r="Z25" s="46" t="s">
         <v>64</v>
       </c>
@@ -3764,9 +3775,9 @@
       </c>
     </row>
     <row r="26" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A26" s="56"/>
+      <c r="A26" s="61"/>
       <c r="B26" s="46" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C26" s="16">
         <v>0</v>
@@ -3798,8 +3809,7 @@
       <c r="L26" s="17">
         <v>100</v>
       </c>
-      <c r="M26" s="38"/>
-      <c r="N26" s="24"/>
+      <c r="N26" s="22"/>
       <c r="O26" s="16"/>
       <c r="P26" s="16"/>
       <c r="Q26" s="16"/>
@@ -3810,7 +3820,7 @@
       <c r="V26" s="16"/>
       <c r="W26" s="16"/>
       <c r="X26" s="17"/>
-      <c r="Y26" s="56"/>
+      <c r="Y26" s="61"/>
       <c r="Z26" s="51" t="s">
         <v>66</v>
       </c>
@@ -3845,10 +3855,10 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A27" s="56"/>
+    <row r="27" spans="1:36" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="61"/>
       <c r="B27" s="46" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="C27" s="16">
         <v>0</v>
@@ -3880,7 +3890,7 @@
       <c r="L27" s="17">
         <v>100</v>
       </c>
-      <c r="M27" s="38"/>
+      <c r="M27" s="16"/>
       <c r="N27" s="24"/>
       <c r="O27" s="16"/>
       <c r="P27" s="16"/>
@@ -3892,7 +3902,7 @@
       <c r="V27" s="16"/>
       <c r="W27" s="16"/>
       <c r="X27" s="17"/>
-      <c r="Y27" s="57"/>
+      <c r="Y27" s="62"/>
       <c r="Z27" s="51" t="s">
         <v>68</v>
       </c>
@@ -3928,9 +3938,9 @@
       </c>
     </row>
     <row r="28" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A28" s="56"/>
+      <c r="A28" s="61"/>
       <c r="B28" s="46" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C28" s="16">
         <v>0</v>
@@ -3974,7 +3984,7 @@
       <c r="V28" s="16"/>
       <c r="W28" s="16"/>
       <c r="X28" s="17"/>
-      <c r="Y28" s="55" t="s">
+      <c r="Y28" s="60" t="s">
         <v>80</v>
       </c>
       <c r="Z28" s="44" t="s">
@@ -4012,9 +4022,9 @@
       </c>
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A29" s="56"/>
+      <c r="A29" s="61"/>
       <c r="B29" s="46" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C29" s="16">
         <v>0</v>
@@ -4058,7 +4068,7 @@
       <c r="V29" s="16"/>
       <c r="W29" s="16"/>
       <c r="X29" s="17"/>
-      <c r="Y29" s="56"/>
+      <c r="Y29" s="61"/>
       <c r="Z29" s="46" t="s">
         <v>62</v>
       </c>
@@ -4094,9 +4104,9 @@
       </c>
     </row>
     <row r="30" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A30" s="56"/>
+      <c r="A30" s="61"/>
       <c r="B30" s="46" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C30" s="16">
         <v>0</v>
@@ -4140,7 +4150,7 @@
       <c r="V30" s="16"/>
       <c r="W30" s="16"/>
       <c r="X30" s="17"/>
-      <c r="Y30" s="57"/>
+      <c r="Y30" s="62"/>
       <c r="Z30" s="47" t="s">
         <v>64</v>
       </c>
@@ -4176,9 +4186,9 @@
       </c>
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A31" s="56"/>
+      <c r="A31" s="61"/>
       <c r="B31" s="46" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C31" s="16">
         <v>0</v>
@@ -4222,7 +4232,7 @@
       <c r="V31" s="16"/>
       <c r="W31" s="16"/>
       <c r="X31" s="17"/>
-      <c r="Y31" s="55" t="s">
+      <c r="Y31" s="60" t="s">
         <v>83</v>
       </c>
       <c r="Z31" s="44" t="s">
@@ -4260,9 +4270,9 @@
       </c>
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A32" s="56"/>
+      <c r="A32" s="61"/>
       <c r="B32" s="46" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C32" s="16">
         <v>0</v>
@@ -4306,7 +4316,7 @@
       <c r="V32" s="16"/>
       <c r="W32" s="16"/>
       <c r="X32" s="17"/>
-      <c r="Y32" s="56"/>
+      <c r="Y32" s="61"/>
       <c r="Z32" s="46" t="s">
         <v>62</v>
       </c>
@@ -4342,41 +4352,41 @@
       </c>
     </row>
     <row r="33" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A33" s="57"/>
-      <c r="B33" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="C33" s="13">
-        <v>0</v>
-      </c>
-      <c r="D33" s="13">
-        <v>100</v>
-      </c>
-      <c r="E33" s="13">
-        <v>0</v>
-      </c>
-      <c r="F33" s="13">
-        <v>100</v>
-      </c>
-      <c r="G33" s="13">
-        <v>0</v>
-      </c>
-      <c r="H33" s="13">
-        <v>100</v>
-      </c>
-      <c r="I33" s="13">
-        <v>0</v>
-      </c>
-      <c r="J33" s="13">
-        <v>100</v>
-      </c>
-      <c r="K33" s="13">
-        <v>0</v>
-      </c>
-      <c r="L33" s="18">
-        <v>100</v>
-      </c>
-      <c r="M33" s="16"/>
+      <c r="A33" s="61"/>
+      <c r="B33" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="16">
+        <v>0</v>
+      </c>
+      <c r="D33" s="16">
+        <v>100</v>
+      </c>
+      <c r="E33" s="16">
+        <v>0</v>
+      </c>
+      <c r="F33" s="16">
+        <v>100</v>
+      </c>
+      <c r="G33" s="16">
+        <v>0</v>
+      </c>
+      <c r="H33" s="16">
+        <v>100</v>
+      </c>
+      <c r="I33" s="16">
+        <v>0</v>
+      </c>
+      <c r="J33" s="16">
+        <v>100</v>
+      </c>
+      <c r="K33" s="16">
+        <v>0</v>
+      </c>
+      <c r="L33" s="17">
+        <v>100</v>
+      </c>
+      <c r="M33" s="38"/>
       <c r="N33" s="24"/>
       <c r="O33" s="16"/>
       <c r="P33" s="16"/>
@@ -4388,8 +4398,8 @@
       <c r="V33" s="16"/>
       <c r="W33" s="16"/>
       <c r="X33" s="17"/>
-      <c r="Y33" s="57"/>
-      <c r="Z33" s="47" t="s">
+      <c r="Y33" s="62"/>
+      <c r="Z33" s="46" t="s">
         <v>64</v>
       </c>
       <c r="AA33" s="13">
@@ -4424,11 +4434,9 @@
       </c>
     </row>
     <row r="34" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A34" s="55" t="s">
-        <v>72</v>
-      </c>
-      <c r="B34" s="43" t="s">
-        <v>73</v>
+      <c r="A34" s="61"/>
+      <c r="B34" s="46" t="s">
+        <v>70</v>
       </c>
       <c r="C34" s="16">
         <v>0</v>
@@ -4460,7 +4468,7 @@
       <c r="L34" s="17">
         <v>100</v>
       </c>
-      <c r="M34" s="16"/>
+      <c r="M34" s="38"/>
       <c r="N34" s="24"/>
       <c r="O34" s="16"/>
       <c r="P34" s="16"/>
@@ -4472,43 +4480,41 @@
       <c r="V34" s="16"/>
       <c r="W34" s="16"/>
       <c r="X34" s="17"/>
-      <c r="Y34" s="36"/>
       <c r="Z34" s="23"/>
-      <c r="AJ34" s="37"/>
     </row>
     <row r="35" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A35" s="56"/>
-      <c r="B35" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="C35" s="16">
-        <v>0</v>
-      </c>
-      <c r="D35" s="16">
-        <v>100</v>
-      </c>
-      <c r="E35" s="16">
-        <v>0</v>
-      </c>
-      <c r="F35" s="16">
-        <v>100</v>
-      </c>
-      <c r="G35" s="16">
-        <v>0</v>
-      </c>
-      <c r="H35" s="16">
-        <v>100</v>
-      </c>
-      <c r="I35" s="16">
-        <v>0</v>
-      </c>
-      <c r="J35" s="16">
-        <v>100</v>
-      </c>
-      <c r="K35" s="16">
-        <v>0</v>
-      </c>
-      <c r="L35" s="17">
+      <c r="A35" s="62"/>
+      <c r="B35" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="13">
+        <v>0</v>
+      </c>
+      <c r="D35" s="13">
+        <v>100</v>
+      </c>
+      <c r="E35" s="13">
+        <v>0</v>
+      </c>
+      <c r="F35" s="13">
+        <v>100</v>
+      </c>
+      <c r="G35" s="13">
+        <v>0</v>
+      </c>
+      <c r="H35" s="13">
+        <v>100</v>
+      </c>
+      <c r="I35" s="13">
+        <v>0</v>
+      </c>
+      <c r="J35" s="13">
+        <v>100</v>
+      </c>
+      <c r="K35" s="13">
+        <v>0</v>
+      </c>
+      <c r="L35" s="18">
         <v>100</v>
       </c>
       <c r="M35" s="16"/>
@@ -4523,14 +4529,14 @@
       <c r="V35" s="16"/>
       <c r="W35" s="16"/>
       <c r="X35" s="17"/>
-      <c r="Y35" s="36"/>
-      <c r="Z35" s="22"/>
-      <c r="AJ35" s="37"/>
+      <c r="Z35" s="93"/>
     </row>
     <row r="36" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A36" s="56"/>
-      <c r="B36" s="46" t="s">
-        <v>52</v>
+      <c r="A36" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" s="43" t="s">
+        <v>73</v>
       </c>
       <c r="C36" s="16">
         <v>0</v>
@@ -4574,23 +4580,14 @@
       <c r="V36" s="16"/>
       <c r="W36" s="16"/>
       <c r="X36" s="17"/>
-      <c r="Y36" s="25"/>
-      <c r="Z36" s="24"/>
-      <c r="AA36" s="16"/>
-      <c r="AB36" s="16"/>
-      <c r="AC36" s="16"/>
-      <c r="AD36" s="16"/>
-      <c r="AE36" s="16"/>
-      <c r="AF36" s="16"/>
-      <c r="AG36" s="16"/>
-      <c r="AH36" s="16"/>
-      <c r="AI36" s="16"/>
-      <c r="AJ36" s="17"/>
+      <c r="Y36" s="36"/>
+      <c r="Z36" s="22"/>
+      <c r="AJ36" s="37"/>
     </row>
     <row r="37" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A37" s="56"/>
+      <c r="A37" s="61"/>
       <c r="B37" s="46" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C37" s="16">
         <v>0</v>
@@ -4634,23 +4631,14 @@
       <c r="V37" s="16"/>
       <c r="W37" s="16"/>
       <c r="X37" s="17"/>
-      <c r="Y37" s="25"/>
-      <c r="Z37" s="24"/>
-      <c r="AA37" s="16"/>
-      <c r="AB37" s="16"/>
-      <c r="AC37" s="16"/>
-      <c r="AD37" s="16"/>
-      <c r="AE37" s="16"/>
-      <c r="AF37" s="16"/>
-      <c r="AG37" s="16"/>
-      <c r="AH37" s="16"/>
-      <c r="AI37" s="16"/>
-      <c r="AJ37" s="17"/>
+      <c r="Y37" s="36"/>
+      <c r="Z37" s="22"/>
+      <c r="AJ37" s="37"/>
     </row>
     <row r="38" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A38" s="56"/>
+      <c r="A38" s="61"/>
       <c r="B38" s="46" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="C38" s="16">
         <v>0</v>
@@ -4708,9 +4696,9 @@
       <c r="AJ38" s="17"/>
     </row>
     <row r="39" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A39" s="56"/>
+      <c r="A39" s="61"/>
       <c r="B39" s="46" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C39" s="16">
         <v>0</v>
@@ -4768,9 +4756,9 @@
       <c r="AJ39" s="17"/>
     </row>
     <row r="40" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A40" s="56"/>
+      <c r="A40" s="61"/>
       <c r="B40" s="46" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C40" s="16">
         <v>0</v>
@@ -4828,9 +4816,9 @@
       <c r="AJ40" s="17"/>
     </row>
     <row r="41" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A41" s="56"/>
+      <c r="A41" s="61"/>
       <c r="B41" s="46" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C41" s="16">
         <v>0</v>
@@ -4888,9 +4876,9 @@
       <c r="AJ41" s="17"/>
     </row>
     <row r="42" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A42" s="56"/>
+      <c r="A42" s="61"/>
       <c r="B42" s="46" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C42" s="16">
         <v>0</v>
@@ -4948,9 +4936,9 @@
       <c r="AJ42" s="17"/>
     </row>
     <row r="43" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A43" s="56"/>
+      <c r="A43" s="61"/>
       <c r="B43" s="46" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C43" s="16">
         <v>0</v>
@@ -5008,9 +4996,9 @@
       <c r="AJ43" s="17"/>
     </row>
     <row r="44" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A44" s="56"/>
+      <c r="A44" s="61"/>
       <c r="B44" s="46" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C44" s="16">
         <v>0</v>
@@ -5068,9 +5056,9 @@
       <c r="AJ44" s="17"/>
     </row>
     <row r="45" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A45" s="56"/>
+      <c r="A45" s="61"/>
       <c r="B45" s="46" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C45" s="16">
         <v>0</v>
@@ -5128,9 +5116,9 @@
       <c r="AJ45" s="17"/>
     </row>
     <row r="46" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A46" s="56"/>
+      <c r="A46" s="61"/>
       <c r="B46" s="46" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C46" s="16">
         <v>0</v>
@@ -5188,9 +5176,9 @@
       <c r="AJ46" s="17"/>
     </row>
     <row r="47" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A47" s="56"/>
+      <c r="A47" s="61"/>
       <c r="B47" s="46" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C47" s="16">
         <v>0</v>
@@ -5247,69 +5235,193 @@
       <c r="AI47" s="16"/>
       <c r="AJ47" s="17"/>
     </row>
-    <row r="48" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="87"/>
-      <c r="B48" s="48" t="s">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A48" s="61"/>
+      <c r="B48" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="C48" s="16">
+        <v>0</v>
+      </c>
+      <c r="D48" s="16">
+        <v>100</v>
+      </c>
+      <c r="E48" s="16">
+        <v>0</v>
+      </c>
+      <c r="F48" s="16">
+        <v>100</v>
+      </c>
+      <c r="G48" s="16">
+        <v>0</v>
+      </c>
+      <c r="H48" s="16">
+        <v>100</v>
+      </c>
+      <c r="I48" s="16">
+        <v>0</v>
+      </c>
+      <c r="J48" s="16">
+        <v>100</v>
+      </c>
+      <c r="K48" s="16">
+        <v>0</v>
+      </c>
+      <c r="L48" s="17">
+        <v>100</v>
+      </c>
+      <c r="M48" s="16"/>
+      <c r="N48" s="24"/>
+      <c r="O48" s="16"/>
+      <c r="P48" s="16"/>
+      <c r="Q48" s="16"/>
+      <c r="R48" s="16"/>
+      <c r="S48" s="16"/>
+      <c r="T48" s="16"/>
+      <c r="U48" s="16"/>
+      <c r="V48" s="16"/>
+      <c r="W48" s="16"/>
+      <c r="X48" s="17"/>
+      <c r="Y48" s="25"/>
+      <c r="Z48" s="24"/>
+      <c r="AA48" s="16"/>
+      <c r="AB48" s="16"/>
+      <c r="AC48" s="16"/>
+      <c r="AD48" s="16"/>
+      <c r="AE48" s="16"/>
+      <c r="AF48" s="16"/>
+      <c r="AG48" s="16"/>
+      <c r="AH48" s="16"/>
+      <c r="AI48" s="16"/>
+      <c r="AJ48" s="17"/>
+    </row>
+    <row r="49" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A49" s="61"/>
+      <c r="B49" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="C49" s="16">
+        <v>0</v>
+      </c>
+      <c r="D49" s="16">
+        <v>100</v>
+      </c>
+      <c r="E49" s="16">
+        <v>0</v>
+      </c>
+      <c r="F49" s="16">
+        <v>100</v>
+      </c>
+      <c r="G49" s="16">
+        <v>0</v>
+      </c>
+      <c r="H49" s="16">
+        <v>100</v>
+      </c>
+      <c r="I49" s="16">
+        <v>0</v>
+      </c>
+      <c r="J49" s="16">
+        <v>100</v>
+      </c>
+      <c r="K49" s="16">
+        <v>0</v>
+      </c>
+      <c r="L49" s="17">
+        <v>100</v>
+      </c>
+      <c r="M49" s="16"/>
+      <c r="N49" s="24"/>
+      <c r="O49" s="16"/>
+      <c r="P49" s="16"/>
+      <c r="Q49" s="16"/>
+      <c r="R49" s="16"/>
+      <c r="S49" s="16"/>
+      <c r="T49" s="16"/>
+      <c r="U49" s="16"/>
+      <c r="V49" s="16"/>
+      <c r="W49" s="16"/>
+      <c r="X49" s="17"/>
+      <c r="Y49" s="25"/>
+      <c r="Z49" s="24"/>
+      <c r="AA49" s="16"/>
+      <c r="AB49" s="16"/>
+      <c r="AC49" s="16"/>
+      <c r="AD49" s="16"/>
+      <c r="AE49" s="16"/>
+      <c r="AF49" s="16"/>
+      <c r="AG49" s="16"/>
+      <c r="AH49" s="16"/>
+      <c r="AI49" s="16"/>
+      <c r="AJ49" s="17"/>
+    </row>
+    <row r="50" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="76"/>
+      <c r="B50" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="C48" s="20">
-        <v>0</v>
-      </c>
-      <c r="D48" s="20">
-        <v>100</v>
-      </c>
-      <c r="E48" s="20">
-        <v>0</v>
-      </c>
-      <c r="F48" s="20">
-        <v>100</v>
-      </c>
-      <c r="G48" s="20">
-        <v>0</v>
-      </c>
-      <c r="H48" s="20">
-        <v>100</v>
-      </c>
-      <c r="I48" s="20">
-        <v>0</v>
-      </c>
-      <c r="J48" s="20">
-        <v>100</v>
-      </c>
-      <c r="K48" s="20">
-        <v>0</v>
-      </c>
-      <c r="L48" s="26">
-        <v>100</v>
-      </c>
-      <c r="M48" s="20"/>
-      <c r="N48" s="28"/>
-      <c r="O48" s="20"/>
-      <c r="P48" s="20"/>
-      <c r="Q48" s="20"/>
-      <c r="R48" s="20"/>
-      <c r="S48" s="20"/>
-      <c r="T48" s="20"/>
-      <c r="U48" s="20"/>
-      <c r="V48" s="20"/>
-      <c r="W48" s="20"/>
-      <c r="X48" s="26"/>
-      <c r="Y48" s="27"/>
-      <c r="Z48" s="28"/>
-      <c r="AA48" s="20"/>
-      <c r="AB48" s="20"/>
-      <c r="AC48" s="20"/>
-      <c r="AD48" s="20"/>
-      <c r="AE48" s="20"/>
-      <c r="AF48" s="20"/>
-      <c r="AG48" s="20"/>
-      <c r="AH48" s="20"/>
-      <c r="AI48" s="20"/>
-      <c r="AJ48" s="26"/>
+      <c r="C50" s="20">
+        <v>0</v>
+      </c>
+      <c r="D50" s="20">
+        <v>100</v>
+      </c>
+      <c r="E50" s="20">
+        <v>0</v>
+      </c>
+      <c r="F50" s="20">
+        <v>100</v>
+      </c>
+      <c r="G50" s="20">
+        <v>0</v>
+      </c>
+      <c r="H50" s="20">
+        <v>100</v>
+      </c>
+      <c r="I50" s="20">
+        <v>0</v>
+      </c>
+      <c r="J50" s="20">
+        <v>100</v>
+      </c>
+      <c r="K50" s="20">
+        <v>0</v>
+      </c>
+      <c r="L50" s="26">
+        <v>100</v>
+      </c>
+      <c r="M50" s="20"/>
+      <c r="N50" s="28"/>
+      <c r="O50" s="20"/>
+      <c r="P50" s="20"/>
+      <c r="Q50" s="20"/>
+      <c r="R50" s="20"/>
+      <c r="S50" s="20"/>
+      <c r="T50" s="20"/>
+      <c r="U50" s="20"/>
+      <c r="V50" s="20"/>
+      <c r="W50" s="20"/>
+      <c r="X50" s="26"/>
+      <c r="Y50" s="27"/>
+      <c r="Z50" s="28"/>
+      <c r="AA50" s="20"/>
+      <c r="AB50" s="20"/>
+      <c r="AC50" s="20"/>
+      <c r="AD50" s="20"/>
+      <c r="AE50" s="20"/>
+      <c r="AF50" s="20"/>
+      <c r="AG50" s="20"/>
+      <c r="AH50" s="20"/>
+      <c r="AI50" s="20"/>
+      <c r="AJ50" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A34:A48"/>
+    <mergeCell ref="Y23:Y27"/>
+    <mergeCell ref="Y15:Y22"/>
+    <mergeCell ref="Y31:Y33"/>
+    <mergeCell ref="Y28:Y30"/>
+    <mergeCell ref="A36:A50"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="AC2:AD2"/>
@@ -5325,21 +5437,17 @@
     <mergeCell ref="AI2:AJ2"/>
     <mergeCell ref="AG2:AH2"/>
     <mergeCell ref="E2:F2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="Y4:Y11"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A35"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="M4:M12"/>
     <mergeCell ref="Y12:Y14"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A23:A33"/>
-    <mergeCell ref="A4:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="Y15:Y22"/>
-    <mergeCell ref="Y23:Y27"/>
-    <mergeCell ref="Y28:Y30"/>
-    <mergeCell ref="Y31:Y33"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="Y4:Y11"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A4:A17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Grille_allocation_ab.xlsx
+++ b/Grille_allocation_ab.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louau\Projets\Ademe_RCP_FAI\modele-rcp-fai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5C54CE-AD72-419D-ACD8-1971E4756D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF7BE8A-6525-4766-BA27-FE534F9CC816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="89">
   <si>
     <t>Fabrication</t>
   </si>
@@ -858,7 +858,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1020,24 +1020,96 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1050,12 +1122,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1065,70 +1131,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1409,10 +1417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32657AA7-A293-41FC-8E8B-58993E82175E}">
-  <dimension ref="A1:AJ50"/>
+  <dimension ref="A1:AV50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="AA35" sqref="AA35"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="AC24" sqref="AC24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1425,154 +1433,190 @@
     <col min="6" max="6" width="7.7265625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.6328125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="7.7265625" customWidth="1"/>
-    <col min="11" max="11" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.90625" customWidth="1"/>
-    <col min="14" max="14" width="36" bestFit="1" customWidth="1"/>
+    <col min="9" max="14" width="7.7265625" customWidth="1"/>
     <col min="15" max="15" width="7.6328125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.90625" customWidth="1"/>
+    <col min="18" max="18" width="36" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="7.6328125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="7.7265625" customWidth="1"/>
+    <col min="21" max="21" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.7265625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="7.6328125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.6328125" customWidth="1"/>
-    <col min="26" max="26" width="45" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="25" max="30" width="7.7265625" customWidth="1"/>
     <col min="31" max="31" width="7.6328125" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="7.7265625" customWidth="1"/>
+    <col min="33" max="33" width="16.6328125" customWidth="1"/>
+    <col min="34" max="34" width="45" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="7.6328125" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="41" max="46" width="7.7265625" customWidth="1"/>
+    <col min="47" max="47" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="7.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="31" x14ac:dyDescent="0.35">
-      <c r="A1" s="77" t="s">
+    <row r="1" spans="1:48" ht="31" x14ac:dyDescent="0.35">
+      <c r="A1" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="86" t="s">
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="87"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
-      <c r="W1" s="78"/>
-      <c r="X1" s="79"/>
-      <c r="Y1" s="86" t="s">
+      <c r="R1" s="74"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="65"/>
+      <c r="X1" s="65"/>
+      <c r="Y1" s="65"/>
+      <c r="Z1" s="65"/>
+      <c r="AA1" s="65"/>
+      <c r="AB1" s="65"/>
+      <c r="AC1" s="65"/>
+      <c r="AD1" s="65"/>
+      <c r="AE1" s="65"/>
+      <c r="AF1" s="66"/>
+      <c r="AG1" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="Z1" s="87"/>
-      <c r="AA1" s="78"/>
-      <c r="AB1" s="78"/>
-      <c r="AC1" s="78"/>
-      <c r="AD1" s="78"/>
-      <c r="AE1" s="78"/>
-      <c r="AF1" s="78"/>
-      <c r="AG1" s="78"/>
-      <c r="AH1" s="78"/>
-      <c r="AI1" s="78"/>
-      <c r="AJ1" s="79"/>
+      <c r="AH1" s="74"/>
+      <c r="AI1" s="65"/>
+      <c r="AJ1" s="65"/>
+      <c r="AK1" s="65"/>
+      <c r="AL1" s="65"/>
+      <c r="AM1" s="65"/>
+      <c r="AN1" s="65"/>
+      <c r="AO1" s="65"/>
+      <c r="AP1" s="65"/>
+      <c r="AQ1" s="65"/>
+      <c r="AR1" s="65"/>
+      <c r="AS1" s="65"/>
+      <c r="AT1" s="65"/>
+      <c r="AU1" s="65"/>
+      <c r="AV1" s="66"/>
     </row>
-    <row r="2" spans="1:36" ht="26" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:48" ht="26" x14ac:dyDescent="0.4">
       <c r="A2" s="52"/>
       <c r="B2" s="53"/>
-      <c r="C2" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="81"/>
-      <c r="E2" s="91" t="s">
+      <c r="C2" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="68"/>
+      <c r="E2" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="92"/>
-      <c r="G2" s="65" t="s">
+      <c r="F2" s="82"/>
+      <c r="G2" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="66"/>
-      <c r="I2" s="84" t="s">
+      <c r="H2" s="90"/>
+      <c r="I2" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="68"/>
+      <c r="K2" s="89" t="s">
+        <v>58</v>
+      </c>
+      <c r="L2" s="95"/>
+      <c r="M2" s="71" t="s">
         <v>79</v>
       </c>
-      <c r="J2" s="85"/>
-      <c r="K2" s="67" t="s">
+      <c r="N2" s="72"/>
+      <c r="O2" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="68"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="88" t="str">
+      <c r="P2" s="80"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="75" t="str">
         <f>C2</f>
         <v>Fabrication</v>
       </c>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="82" t="str">
+      <c r="T2" s="76"/>
+      <c r="U2" s="69" t="str">
         <f>E2</f>
         <v>Distribution</v>
       </c>
-      <c r="R2" s="83"/>
-      <c r="S2" s="89" t="str">
+      <c r="V2" s="70"/>
+      <c r="W2" s="77" t="str">
         <f>G2</f>
         <v>Utilisation</v>
       </c>
-      <c r="T2" s="90"/>
-      <c r="U2" s="84" t="s">
+      <c r="X2" s="78"/>
+      <c r="Y2" s="75" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z2" s="83"/>
+      <c r="AA2" s="77" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB2" s="84"/>
+      <c r="AC2" s="71" t="s">
         <v>79</v>
       </c>
-      <c r="V2" s="85"/>
-      <c r="W2" s="67" t="str">
-        <f>K2</f>
+      <c r="AD2" s="72"/>
+      <c r="AE2" s="79" t="str">
+        <f>O2</f>
         <v>Fin de vie</v>
       </c>
-      <c r="X2" s="68"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="57" t="str">
-        <f>O2</f>
+      <c r="AF2" s="80"/>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="3"/>
+      <c r="AI2" s="76" t="str">
+        <f>S2</f>
         <v>Fabrication</v>
       </c>
-      <c r="AB2" s="57"/>
-      <c r="AC2" s="82" t="str">
-        <f>Q2</f>
+      <c r="AJ2" s="76"/>
+      <c r="AK2" s="69" t="str">
+        <f>U2</f>
         <v>Distribution</v>
       </c>
-      <c r="AD2" s="83"/>
-      <c r="AE2" s="89" t="str">
-        <f>S2</f>
+      <c r="AL2" s="70"/>
+      <c r="AM2" s="77" t="str">
+        <f>W2</f>
         <v>Utilisation</v>
       </c>
-      <c r="AF2" s="90"/>
-      <c r="AG2" s="84" t="s">
+      <c r="AN2" s="78"/>
+      <c r="AO2" s="75" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP2" s="83"/>
+      <c r="AQ2" s="77" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR2" s="84"/>
+      <c r="AS2" s="71" t="s">
         <v>79</v>
       </c>
-      <c r="AH2" s="85"/>
-      <c r="AI2" s="67" t="str">
-        <f>W2</f>
+      <c r="AT2" s="72"/>
+      <c r="AU2" s="79" t="str">
+        <f>AE2</f>
         <v>Fin de vie</v>
       </c>
-      <c r="AJ2" s="68"/>
+      <c r="AV2" s="80"/>
     </row>
-    <row r="3" spans="1:36" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:48" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="54" t="s">
         <v>12</v>
       </c>
@@ -1601,115 +1645,151 @@
         <f>F3</f>
         <v>Type b</v>
       </c>
-      <c r="I3" s="35" t="s">
+      <c r="I3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="35" t="s">
+      <c r="J3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="8" t="str">
-        <f t="shared" ref="K3:L3" si="0">G3</f>
+      <c r="K3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" s="8" t="str">
+        <f t="shared" ref="O3:P3" si="0">G3</f>
         <v>Type a</v>
       </c>
-      <c r="L3" s="15" t="str">
+      <c r="P3" s="15" t="str">
         <f t="shared" si="0"/>
         <v>Type b</v>
       </c>
-      <c r="M3" s="9" t="str">
+      <c r="Q3" s="9" t="str">
         <f>A3</f>
         <v>Catégorie</v>
       </c>
-      <c r="N3" s="4" t="str">
+      <c r="R3" s="4" t="str">
         <f>B3</f>
         <v>Equipement</v>
       </c>
-      <c r="O3" s="5" t="str">
+      <c r="S3" s="5" t="str">
         <f>C3</f>
         <v>Type a</v>
       </c>
-      <c r="P3" s="5" t="str">
+      <c r="T3" s="5" t="str">
         <f>D3</f>
         <v>Type b</v>
       </c>
-      <c r="Q3" s="6" t="str">
+      <c r="U3" s="6" t="str">
         <f>E3</f>
         <v>Type a</v>
       </c>
-      <c r="R3" s="6" t="str">
+      <c r="V3" s="6" t="str">
         <f>F3</f>
         <v>Type b</v>
       </c>
-      <c r="S3" s="7" t="str">
-        <f t="shared" ref="S3:T3" si="1">G3</f>
+      <c r="W3" s="7" t="str">
+        <f t="shared" ref="W3:X3" si="1">G3</f>
         <v>Type a</v>
       </c>
-      <c r="T3" s="7" t="str">
+      <c r="X3" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Type b</v>
       </c>
-      <c r="U3" s="35" t="s">
+      <c r="Y3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="V3" s="35" t="s">
+      <c r="Z3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="W3" s="8" t="str">
-        <f>K3</f>
+      <c r="AA3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC3" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD3" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE3" s="8" t="str">
+        <f>O3</f>
         <v>Type a</v>
       </c>
-      <c r="X3" s="15" t="str">
-        <f>L3</f>
+      <c r="AF3" s="15" t="str">
+        <f>P3</f>
         <v>Type b</v>
       </c>
-      <c r="Y3" s="10" t="str">
-        <f t="shared" ref="Y3:AD3" si="2">A3</f>
+      <c r="AG3" s="10" t="str">
+        <f t="shared" ref="AG3:AL3" si="2">A3</f>
         <v>Catégorie</v>
       </c>
-      <c r="Z3" s="4" t="str">
+      <c r="AH3" s="4" t="str">
         <f t="shared" si="2"/>
         <v>Equipement</v>
       </c>
-      <c r="AA3" s="11" t="str">
+      <c r="AI3" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Type a</v>
       </c>
-      <c r="AB3" s="5" t="str">
+      <c r="AJ3" s="5" t="str">
         <f t="shared" si="2"/>
         <v>Type b</v>
       </c>
-      <c r="AC3" s="6" t="str">
+      <c r="AK3" s="6" t="str">
         <f t="shared" si="2"/>
         <v>Type a</v>
       </c>
-      <c r="AD3" s="6" t="str">
+      <c r="AL3" s="6" t="str">
         <f t="shared" si="2"/>
         <v>Type b</v>
       </c>
-      <c r="AE3" s="7" t="str">
-        <f t="shared" ref="AE3:AF3" si="3">G3</f>
+      <c r="AM3" s="7" t="str">
+        <f t="shared" ref="AM3:AN3" si="3">G3</f>
         <v>Type a</v>
       </c>
-      <c r="AF3" s="7" t="str">
+      <c r="AN3" s="7" t="str">
         <f t="shared" si="3"/>
         <v>Type b</v>
       </c>
-      <c r="AG3" s="35" t="s">
+      <c r="AO3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="AH3" s="35" t="s">
+      <c r="AP3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="AI3" s="8" t="str">
-        <f>K3</f>
+      <c r="AQ3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="AS3" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT3" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="AU3" s="8" t="str">
+        <f>O3</f>
         <v>Type a</v>
       </c>
-      <c r="AJ3" s="15" t="str">
-        <f>L3</f>
+      <c r="AV3" s="15" t="str">
+        <f>P3</f>
         <v>Type b</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A4" s="75" t="s">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A4" s="94" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="42" t="s">
@@ -1734,92 +1814,128 @@
         <v>80</v>
       </c>
       <c r="I4" s="31">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J4" s="31">
         <v>0</v>
       </c>
       <c r="K4" s="31">
-        <v>100</v>
-      </c>
-      <c r="L4" s="32">
-        <v>0</v>
-      </c>
-      <c r="M4" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="L4" s="31">
+        <v>0</v>
+      </c>
+      <c r="M4" s="31">
+        <v>100</v>
+      </c>
+      <c r="N4" s="31">
+        <v>0</v>
+      </c>
+      <c r="O4" s="31">
+        <v>100</v>
+      </c>
+      <c r="P4" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="N4" s="42" t="s">
+      <c r="R4" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="O4" s="12">
-        <v>0</v>
-      </c>
-      <c r="P4" s="12">
-        <v>100</v>
-      </c>
-      <c r="Q4" s="12">
-        <v>0</v>
-      </c>
-      <c r="R4" s="12">
-        <v>100</v>
-      </c>
       <c r="S4" s="12">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T4" s="12">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U4" s="12">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V4" s="12">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W4" s="12">
-        <v>0</v>
-      </c>
-      <c r="X4" s="19">
-        <v>100</v>
-      </c>
-      <c r="Y4" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="X4" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="12">
+        <v>100</v>
+      </c>
+      <c r="AF4" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="Z4" s="42" t="s">
+      <c r="AH4" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="AA4" s="31">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="31">
-        <v>100</v>
-      </c>
-      <c r="AC4" s="31">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="31">
-        <v>100</v>
-      </c>
-      <c r="AE4" s="31">
+      <c r="AI4" s="31">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="31">
+        <v>100</v>
+      </c>
+      <c r="AK4" s="31">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="31">
+        <v>100</v>
+      </c>
+      <c r="AM4" s="31">
         <v>40</v>
       </c>
-      <c r="AF4" s="31">
+      <c r="AN4" s="31">
         <v>60</v>
       </c>
-      <c r="AG4" s="31">
-        <v>0</v>
-      </c>
-      <c r="AH4" s="31">
-        <v>100</v>
-      </c>
-      <c r="AI4" s="31">
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="32">
+      <c r="AO4" s="31">
+        <v>0</v>
+      </c>
+      <c r="AP4" s="31">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="31">
+        <v>0</v>
+      </c>
+      <c r="AR4" s="31">
+        <v>0</v>
+      </c>
+      <c r="AS4" s="31">
+        <v>0</v>
+      </c>
+      <c r="AT4" s="31">
+        <v>100</v>
+      </c>
+      <c r="AU4" s="31">
+        <v>0</v>
+      </c>
+      <c r="AV4" s="32">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A5" s="61"/>
+    <row r="5" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A5" s="58"/>
       <c r="B5" s="43" t="s">
         <v>19</v>
       </c>
@@ -1845,85 +1961,121 @@
         <v>0</v>
       </c>
       <c r="J5" s="16">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K5" s="16">
         <v>0</v>
       </c>
-      <c r="L5" s="17">
-        <v>100</v>
-      </c>
-      <c r="M5" s="70"/>
-      <c r="N5" s="43" t="s">
+      <c r="L5" s="16">
+        <v>0</v>
+      </c>
+      <c r="M5" s="16">
+        <v>0</v>
+      </c>
+      <c r="N5" s="16">
+        <v>100</v>
+      </c>
+      <c r="O5" s="16">
+        <v>0</v>
+      </c>
+      <c r="P5" s="17">
+        <v>100</v>
+      </c>
+      <c r="Q5" s="92"/>
+      <c r="R5" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="O5" s="16">
-        <v>0</v>
-      </c>
-      <c r="P5" s="16">
-        <v>100</v>
-      </c>
-      <c r="Q5" s="16">
-        <v>0</v>
-      </c>
-      <c r="R5" s="16">
-        <v>100</v>
-      </c>
       <c r="S5" s="16">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T5" s="16">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U5" s="16">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V5" s="16">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W5" s="16">
-        <v>0</v>
-      </c>
-      <c r="X5" s="17">
-        <v>100</v>
-      </c>
-      <c r="Y5" s="59"/>
-      <c r="Z5" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="X5" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="16">
+        <v>100</v>
+      </c>
+      <c r="AF5" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="86"/>
+      <c r="AH5" s="43" t="s">
         <v>21</v>
-      </c>
-      <c r="AA5" s="16">
-        <v>35</v>
-      </c>
-      <c r="AB5" s="16">
-        <v>65</v>
-      </c>
-      <c r="AC5" s="16">
-        <v>35</v>
-      </c>
-      <c r="AD5" s="16">
-        <v>65</v>
-      </c>
-      <c r="AE5" s="16">
-        <v>40</v>
-      </c>
-      <c r="AF5" s="16">
-        <v>60</v>
-      </c>
-      <c r="AG5" s="16">
-        <v>35</v>
-      </c>
-      <c r="AH5" s="16">
-        <v>65</v>
       </c>
       <c r="AI5" s="16">
         <v>35</v>
       </c>
-      <c r="AJ5" s="17">
+      <c r="AJ5" s="16">
         <v>65</v>
       </c>
+      <c r="AK5" s="16">
+        <v>35</v>
+      </c>
+      <c r="AL5" s="16">
+        <v>65</v>
+      </c>
+      <c r="AM5" s="16">
+        <v>40</v>
+      </c>
+      <c r="AN5" s="16">
+        <v>60</v>
+      </c>
+      <c r="AO5" s="16">
+        <v>0</v>
+      </c>
+      <c r="AP5" s="16">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="16">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="16">
+        <v>0</v>
+      </c>
+      <c r="AS5" s="16">
+        <v>35</v>
+      </c>
+      <c r="AT5" s="16">
+        <v>65</v>
+      </c>
+      <c r="AU5" s="16">
+        <v>35</v>
+      </c>
+      <c r="AV5" s="17">
+        <v>65</v>
+      </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A6" s="61"/>
+    <row r="6" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A6" s="58"/>
       <c r="B6" s="43" t="s">
         <v>22</v>
       </c>
@@ -1949,85 +2101,121 @@
         <v>0</v>
       </c>
       <c r="J6" s="16">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K6" s="16">
         <v>0</v>
       </c>
-      <c r="L6" s="17">
-        <v>100</v>
-      </c>
-      <c r="M6" s="70"/>
-      <c r="N6" s="43" t="s">
+      <c r="L6" s="16">
+        <v>0</v>
+      </c>
+      <c r="M6" s="16">
+        <v>0</v>
+      </c>
+      <c r="N6" s="16">
+        <v>100</v>
+      </c>
+      <c r="O6" s="16">
+        <v>0</v>
+      </c>
+      <c r="P6" s="17">
+        <v>100</v>
+      </c>
+      <c r="Q6" s="92"/>
+      <c r="R6" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="O6" s="16">
-        <v>0</v>
-      </c>
-      <c r="P6" s="16">
-        <v>100</v>
-      </c>
-      <c r="Q6" s="16">
-        <v>0</v>
-      </c>
-      <c r="R6" s="16">
-        <v>100</v>
-      </c>
       <c r="S6" s="16">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T6" s="16">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U6" s="16">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V6" s="16">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W6" s="16">
-        <v>0</v>
-      </c>
-      <c r="X6" s="17">
-        <v>100</v>
-      </c>
-      <c r="Y6" s="59"/>
-      <c r="Z6" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="X6" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="16">
+        <v>100</v>
+      </c>
+      <c r="AF6" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="86"/>
+      <c r="AH6" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="AA6" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="16">
-        <v>100</v>
-      </c>
-      <c r="AC6" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="16">
-        <v>100</v>
-      </c>
-      <c r="AE6" s="16">
+      <c r="AI6" s="16">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="16">
+        <v>100</v>
+      </c>
+      <c r="AK6" s="16">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="16">
+        <v>100</v>
+      </c>
+      <c r="AM6" s="16">
         <v>40</v>
       </c>
-      <c r="AF6" s="16">
+      <c r="AN6" s="16">
         <v>60</v>
       </c>
-      <c r="AG6" s="16">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="16">
-        <v>100</v>
-      </c>
-      <c r="AI6" s="16">
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="17">
+      <c r="AO6" s="16">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="16">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="16">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="16">
+        <v>0</v>
+      </c>
+      <c r="AS6" s="16">
+        <v>0</v>
+      </c>
+      <c r="AT6" s="16">
+        <v>100</v>
+      </c>
+      <c r="AU6" s="16">
+        <v>0</v>
+      </c>
+      <c r="AV6" s="17">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A7" s="61"/>
+    <row r="7" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A7" s="58"/>
       <c r="B7" s="43" t="s">
         <v>25</v>
       </c>
@@ -2053,85 +2241,121 @@
         <v>0</v>
       </c>
       <c r="J7" s="16">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K7" s="16">
         <v>0</v>
       </c>
-      <c r="L7" s="17">
-        <v>100</v>
-      </c>
-      <c r="M7" s="70"/>
-      <c r="N7" s="43" t="s">
+      <c r="L7" s="16">
+        <v>0</v>
+      </c>
+      <c r="M7" s="16">
+        <v>0</v>
+      </c>
+      <c r="N7" s="16">
+        <v>100</v>
+      </c>
+      <c r="O7" s="16">
+        <v>0</v>
+      </c>
+      <c r="P7" s="17">
+        <v>100</v>
+      </c>
+      <c r="Q7" s="92"/>
+      <c r="R7" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="O7" s="16">
-        <v>0</v>
-      </c>
-      <c r="P7" s="16">
-        <v>100</v>
-      </c>
-      <c r="Q7" s="16">
-        <v>0</v>
-      </c>
-      <c r="R7" s="16">
-        <v>100</v>
-      </c>
       <c r="S7" s="16">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T7" s="16">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U7" s="16">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V7" s="16">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W7" s="16">
-        <v>0</v>
-      </c>
-      <c r="X7" s="17">
-        <v>100</v>
-      </c>
-      <c r="Y7" s="59"/>
-      <c r="Z7" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="X7" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="16">
+        <v>100</v>
+      </c>
+      <c r="AF7" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="86"/>
+      <c r="AH7" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="AA7" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="16">
-        <v>100</v>
-      </c>
-      <c r="AC7" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="16">
-        <v>100</v>
-      </c>
-      <c r="AE7" s="16">
+      <c r="AI7" s="16">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="16">
+        <v>100</v>
+      </c>
+      <c r="AK7" s="16">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="16">
+        <v>100</v>
+      </c>
+      <c r="AM7" s="16">
         <v>40</v>
       </c>
-      <c r="AF7" s="16">
+      <c r="AN7" s="16">
         <v>60</v>
       </c>
-      <c r="AG7" s="16">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="16">
-        <v>100</v>
-      </c>
-      <c r="AI7" s="16">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="17">
+      <c r="AO7" s="16">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="16">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="16">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="16">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="16">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="16">
+        <v>100</v>
+      </c>
+      <c r="AU7" s="16">
+        <v>0</v>
+      </c>
+      <c r="AV7" s="17">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:36" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="61"/>
+    <row r="8" spans="1:48" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="58"/>
       <c r="B8" s="43" t="s">
         <v>28</v>
       </c>
@@ -2157,85 +2381,121 @@
         <v>0</v>
       </c>
       <c r="J8" s="16">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K8" s="16">
         <v>0</v>
       </c>
-      <c r="L8" s="17">
-        <v>100</v>
-      </c>
-      <c r="M8" s="70"/>
-      <c r="N8" s="43" t="s">
+      <c r="L8" s="16">
+        <v>0</v>
+      </c>
+      <c r="M8" s="16">
+        <v>0</v>
+      </c>
+      <c r="N8" s="16">
+        <v>100</v>
+      </c>
+      <c r="O8" s="16">
+        <v>0</v>
+      </c>
+      <c r="P8" s="17">
+        <v>100</v>
+      </c>
+      <c r="Q8" s="92"/>
+      <c r="R8" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="O8" s="16">
-        <v>0</v>
-      </c>
-      <c r="P8" s="16">
-        <v>100</v>
-      </c>
-      <c r="Q8" s="16">
-        <v>0</v>
-      </c>
-      <c r="R8" s="16">
-        <v>100</v>
-      </c>
       <c r="S8" s="16">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T8" s="16">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U8" s="16">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V8" s="16">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W8" s="16">
-        <v>0</v>
-      </c>
-      <c r="X8" s="17">
-        <v>100</v>
-      </c>
-      <c r="Y8" s="59"/>
-      <c r="Z8" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="X8" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="16">
+        <v>100</v>
+      </c>
+      <c r="AF8" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="86"/>
+      <c r="AH8" s="43" t="s">
         <v>31</v>
-      </c>
-      <c r="AA8" s="16">
-        <v>60</v>
-      </c>
-      <c r="AB8" s="16">
-        <v>40</v>
-      </c>
-      <c r="AC8" s="16">
-        <v>60</v>
-      </c>
-      <c r="AD8" s="16">
-        <v>40</v>
-      </c>
-      <c r="AE8" s="16">
-        <v>40</v>
-      </c>
-      <c r="AF8" s="16">
-        <v>60</v>
-      </c>
-      <c r="AG8" s="16">
-        <v>60</v>
-      </c>
-      <c r="AH8" s="16">
-        <v>40</v>
       </c>
       <c r="AI8" s="16">
         <v>60</v>
       </c>
-      <c r="AJ8" s="17">
+      <c r="AJ8" s="16">
         <v>40</v>
       </c>
+      <c r="AK8" s="16">
+        <v>60</v>
+      </c>
+      <c r="AL8" s="16">
+        <v>40</v>
+      </c>
+      <c r="AM8" s="16">
+        <v>40</v>
+      </c>
+      <c r="AN8" s="16">
+        <v>60</v>
+      </c>
+      <c r="AO8" s="16">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="16">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="16">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="16">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="16">
+        <v>60</v>
+      </c>
+      <c r="AT8" s="16">
+        <v>40</v>
+      </c>
+      <c r="AU8" s="16">
+        <v>60</v>
+      </c>
+      <c r="AV8" s="17">
+        <v>40</v>
+      </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A9" s="61"/>
+    <row r="9" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A9" s="58"/>
       <c r="B9" s="43" t="s">
         <v>7</v>
       </c>
@@ -2261,85 +2521,121 @@
         <v>0</v>
       </c>
       <c r="J9" s="16">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K9" s="16">
         <v>0</v>
       </c>
-      <c r="L9" s="17">
-        <v>100</v>
-      </c>
-      <c r="M9" s="70"/>
-      <c r="N9" s="43" t="s">
+      <c r="L9" s="16">
+        <v>0</v>
+      </c>
+      <c r="M9" s="16">
+        <v>0</v>
+      </c>
+      <c r="N9" s="16">
+        <v>100</v>
+      </c>
+      <c r="O9" s="16">
+        <v>0</v>
+      </c>
+      <c r="P9" s="17">
+        <v>100</v>
+      </c>
+      <c r="Q9" s="92"/>
+      <c r="R9" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="O9" s="16">
-        <v>0</v>
-      </c>
-      <c r="P9" s="16">
-        <v>100</v>
-      </c>
-      <c r="Q9" s="16">
-        <v>0</v>
-      </c>
-      <c r="R9" s="16">
-        <v>100</v>
-      </c>
       <c r="S9" s="16">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T9" s="16">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U9" s="16">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V9" s="16">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W9" s="16">
-        <v>0</v>
-      </c>
-      <c r="X9" s="17">
-        <v>100</v>
-      </c>
-      <c r="Y9" s="59"/>
-      <c r="Z9" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="X9" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="16">
+        <v>100</v>
+      </c>
+      <c r="AF9" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="86"/>
+      <c r="AH9" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="AA9" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="16">
-        <v>100</v>
-      </c>
-      <c r="AC9" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="16">
-        <v>100</v>
-      </c>
-      <c r="AE9" s="16">
+      <c r="AI9" s="16">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="16">
+        <v>100</v>
+      </c>
+      <c r="AK9" s="16">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="16">
+        <v>100</v>
+      </c>
+      <c r="AM9" s="16">
         <v>40</v>
       </c>
-      <c r="AF9" s="16">
+      <c r="AN9" s="16">
         <v>60</v>
       </c>
-      <c r="AG9" s="16">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="16">
-        <v>100</v>
-      </c>
-      <c r="AI9" s="16">
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="17">
+      <c r="AO9" s="16">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="16">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="16">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="16">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="16">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="16">
+        <v>100</v>
+      </c>
+      <c r="AU9" s="16">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="17">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A10" s="61"/>
+    <row r="10" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A10" s="58"/>
       <c r="B10" s="43" t="s">
         <v>34</v>
       </c>
@@ -2365,85 +2661,121 @@
         <v>0</v>
       </c>
       <c r="J10" s="16">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K10" s="16">
         <v>0</v>
       </c>
-      <c r="L10" s="17">
-        <v>100</v>
-      </c>
-      <c r="M10" s="70"/>
-      <c r="N10" s="43" t="s">
+      <c r="L10" s="16">
+        <v>0</v>
+      </c>
+      <c r="M10" s="16">
+        <v>0</v>
+      </c>
+      <c r="N10" s="16">
+        <v>100</v>
+      </c>
+      <c r="O10" s="16">
+        <v>0</v>
+      </c>
+      <c r="P10" s="17">
+        <v>100</v>
+      </c>
+      <c r="Q10" s="92"/>
+      <c r="R10" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="O10" s="16">
-        <v>0</v>
-      </c>
-      <c r="P10" s="16">
-        <v>100</v>
-      </c>
-      <c r="Q10" s="16">
-        <v>0</v>
-      </c>
-      <c r="R10" s="16">
-        <v>100</v>
-      </c>
       <c r="S10" s="16">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T10" s="16">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U10" s="16">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V10" s="16">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W10" s="16">
-        <v>0</v>
-      </c>
-      <c r="X10" s="17">
-        <v>100</v>
-      </c>
-      <c r="Y10" s="59"/>
-      <c r="Z10" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="X10" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="16">
+        <v>100</v>
+      </c>
+      <c r="AF10" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="86"/>
+      <c r="AH10" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="AA10" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="16">
-        <v>100</v>
-      </c>
-      <c r="AC10" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="16">
-        <v>100</v>
-      </c>
-      <c r="AE10" s="16">
+      <c r="AI10" s="16">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="16">
+        <v>100</v>
+      </c>
+      <c r="AK10" s="16">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="16">
+        <v>100</v>
+      </c>
+      <c r="AM10" s="16">
         <v>40</v>
       </c>
-      <c r="AF10" s="16">
+      <c r="AN10" s="16">
         <v>60</v>
       </c>
-      <c r="AG10" s="16">
-        <v>0</v>
-      </c>
-      <c r="AH10" s="16">
-        <v>100</v>
-      </c>
-      <c r="AI10" s="16">
-        <v>0</v>
-      </c>
-      <c r="AJ10" s="17">
+      <c r="AO10" s="16">
+        <v>0</v>
+      </c>
+      <c r="AP10" s="16">
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="16">
+        <v>0</v>
+      </c>
+      <c r="AR10" s="16">
+        <v>0</v>
+      </c>
+      <c r="AS10" s="16">
+        <v>0</v>
+      </c>
+      <c r="AT10" s="16">
+        <v>100</v>
+      </c>
+      <c r="AU10" s="16">
+        <v>0</v>
+      </c>
+      <c r="AV10" s="17">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A11" s="61"/>
+    <row r="11" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A11" s="58"/>
       <c r="B11" s="43" t="s">
         <v>37</v>
       </c>
@@ -2469,85 +2801,121 @@
         <v>0</v>
       </c>
       <c r="J11" s="16">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K11" s="16">
         <v>0</v>
       </c>
-      <c r="L11" s="17">
-        <v>100</v>
-      </c>
-      <c r="M11" s="70"/>
-      <c r="N11" s="43" t="s">
+      <c r="L11" s="16">
+        <v>0</v>
+      </c>
+      <c r="M11" s="16">
+        <v>0</v>
+      </c>
+      <c r="N11" s="16">
+        <v>100</v>
+      </c>
+      <c r="O11" s="16">
+        <v>0</v>
+      </c>
+      <c r="P11" s="17">
+        <v>100</v>
+      </c>
+      <c r="Q11" s="92"/>
+      <c r="R11" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="O11" s="16">
-        <v>0</v>
-      </c>
-      <c r="P11" s="16">
-        <v>100</v>
-      </c>
-      <c r="Q11" s="16">
-        <v>0</v>
-      </c>
-      <c r="R11" s="16">
-        <v>100</v>
-      </c>
       <c r="S11" s="16">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T11" s="16">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U11" s="16">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V11" s="16">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W11" s="16">
-        <v>0</v>
-      </c>
-      <c r="X11" s="17">
-        <v>100</v>
-      </c>
-      <c r="Y11" s="59"/>
-      <c r="Z11" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="X11" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="16">
+        <v>100</v>
+      </c>
+      <c r="AF11" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="86"/>
+      <c r="AH11" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="AA11" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="16">
-        <v>100</v>
-      </c>
-      <c r="AC11" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="16">
-        <v>100</v>
-      </c>
-      <c r="AE11" s="16">
+      <c r="AI11" s="16">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="16">
+        <v>100</v>
+      </c>
+      <c r="AK11" s="16">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="16">
+        <v>100</v>
+      </c>
+      <c r="AM11" s="16">
         <v>40</v>
       </c>
-      <c r="AF11" s="16">
+      <c r="AN11" s="16">
         <v>60</v>
       </c>
-      <c r="AG11" s="16">
-        <v>0</v>
-      </c>
-      <c r="AH11" s="16">
-        <v>100</v>
-      </c>
-      <c r="AI11" s="16">
-        <v>0</v>
-      </c>
-      <c r="AJ11" s="17">
+      <c r="AO11" s="16">
+        <v>0</v>
+      </c>
+      <c r="AP11" s="16">
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="16">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="16">
+        <v>0</v>
+      </c>
+      <c r="AS11" s="16">
+        <v>0</v>
+      </c>
+      <c r="AT11" s="16">
+        <v>100</v>
+      </c>
+      <c r="AU11" s="16">
+        <v>0</v>
+      </c>
+      <c r="AV11" s="17">
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A12" s="61"/>
+    <row r="12" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A12" s="58"/>
       <c r="B12" s="43" t="s">
         <v>40</v>
       </c>
@@ -2573,87 +2941,123 @@
         <v>0</v>
       </c>
       <c r="J12" s="16">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K12" s="16">
         <v>0</v>
       </c>
-      <c r="L12" s="17">
-        <v>100</v>
-      </c>
-      <c r="M12" s="71"/>
-      <c r="N12" s="45" t="s">
+      <c r="L12" s="16">
+        <v>0</v>
+      </c>
+      <c r="M12" s="16">
+        <v>0</v>
+      </c>
+      <c r="N12" s="16">
+        <v>100</v>
+      </c>
+      <c r="O12" s="16">
+        <v>0</v>
+      </c>
+      <c r="P12" s="17">
+        <v>100</v>
+      </c>
+      <c r="Q12" s="93"/>
+      <c r="R12" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="O12" s="16">
-        <v>0</v>
-      </c>
-      <c r="P12" s="16">
-        <v>100</v>
-      </c>
-      <c r="Q12" s="16">
-        <v>0</v>
-      </c>
-      <c r="R12" s="16">
-        <v>100</v>
-      </c>
       <c r="S12" s="16">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T12" s="16">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U12" s="16">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V12" s="16">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W12" s="16">
-        <v>0</v>
-      </c>
-      <c r="X12" s="17">
-        <v>100</v>
-      </c>
-      <c r="Y12" s="72" t="s">
+        <v>100</v>
+      </c>
+      <c r="X12" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="16">
+        <v>100</v>
+      </c>
+      <c r="AF12" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="Z12" s="44" t="s">
+      <c r="AH12" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="AA12" s="12">
-        <v>100</v>
-      </c>
-      <c r="AB12" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="12">
-        <v>100</v>
-      </c>
-      <c r="AD12" s="12">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="12">
-        <v>100</v>
-      </c>
-      <c r="AF12" s="12">
-        <v>0</v>
-      </c>
-      <c r="AG12" s="12">
-        <v>100</v>
-      </c>
-      <c r="AH12" s="12">
-        <v>0</v>
-      </c>
       <c r="AI12" s="12">
         <v>100</v>
       </c>
-      <c r="AJ12" s="19">
+      <c r="AJ12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="12">
+        <v>100</v>
+      </c>
+      <c r="AL12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM12" s="12">
+        <v>100</v>
+      </c>
+      <c r="AN12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AO12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AP12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AQ12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AR12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AS12" s="12">
+        <v>100</v>
+      </c>
+      <c r="AT12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AU12" s="12">
+        <v>100</v>
+      </c>
+      <c r="AV12" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A13" s="61"/>
+    <row r="13" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A13" s="58"/>
       <c r="B13" s="43" t="s">
         <v>43</v>
       </c>
@@ -2679,87 +3083,123 @@
         <v>0</v>
       </c>
       <c r="J13" s="16">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K13" s="16">
         <v>0</v>
       </c>
-      <c r="L13" s="17">
-        <v>100</v>
-      </c>
-      <c r="M13" s="40" t="s">
+      <c r="L13" s="16">
+        <v>0</v>
+      </c>
+      <c r="M13" s="16">
+        <v>0</v>
+      </c>
+      <c r="N13" s="16">
+        <v>100</v>
+      </c>
+      <c r="O13" s="16">
+        <v>0</v>
+      </c>
+      <c r="P13" s="17">
+        <v>100</v>
+      </c>
+      <c r="Q13" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="N13" s="49" t="s">
+      <c r="R13" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="O13" s="34">
-        <v>0</v>
-      </c>
-      <c r="P13" s="14">
-        <v>100</v>
-      </c>
-      <c r="Q13" s="14">
-        <v>0</v>
-      </c>
-      <c r="R13" s="14">
-        <v>100</v>
-      </c>
-      <c r="S13" s="14">
+      <c r="S13" s="34">
         <v>0</v>
       </c>
       <c r="T13" s="14">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U13" s="14">
         <v>0</v>
       </c>
       <c r="V13" s="14">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W13" s="14">
         <v>0</v>
       </c>
-      <c r="X13" s="21">
-        <v>100</v>
-      </c>
-      <c r="Y13" s="73"/>
-      <c r="Z13" s="43" t="s">
+      <c r="X13" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="14">
+        <v>100</v>
+      </c>
+      <c r="AA13" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="14">
+        <v>100</v>
+      </c>
+      <c r="AC13" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="21">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="61"/>
+      <c r="AH13" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="AA13" s="16">
-        <v>100</v>
-      </c>
-      <c r="AB13" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="16">
-        <v>100</v>
-      </c>
-      <c r="AD13" s="16">
-        <v>0</v>
-      </c>
-      <c r="AE13" s="16">
-        <v>100</v>
-      </c>
-      <c r="AF13" s="16">
-        <v>0</v>
-      </c>
-      <c r="AG13" s="16">
-        <v>100</v>
-      </c>
-      <c r="AH13" s="16">
-        <v>0</v>
-      </c>
       <c r="AI13" s="16">
         <v>100</v>
       </c>
-      <c r="AJ13" s="17">
+      <c r="AJ13" s="16">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="16">
+        <v>100</v>
+      </c>
+      <c r="AL13" s="16">
+        <v>0</v>
+      </c>
+      <c r="AM13" s="16">
+        <v>100</v>
+      </c>
+      <c r="AN13" s="16">
+        <v>0</v>
+      </c>
+      <c r="AO13" s="16">
+        <v>0</v>
+      </c>
+      <c r="AP13" s="16">
+        <v>0</v>
+      </c>
+      <c r="AQ13" s="16">
+        <v>0</v>
+      </c>
+      <c r="AR13" s="16">
+        <v>0</v>
+      </c>
+      <c r="AS13" s="16">
+        <v>100</v>
+      </c>
+      <c r="AT13" s="16">
+        <v>0</v>
+      </c>
+      <c r="AU13" s="16">
+        <v>100</v>
+      </c>
+      <c r="AV13" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A14" s="61"/>
+    <row r="14" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A14" s="58"/>
       <c r="B14" s="43" t="s">
         <v>85</v>
       </c>
@@ -2785,87 +3225,123 @@
         <v>0</v>
       </c>
       <c r="J14" s="16">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K14" s="16">
         <v>0</v>
       </c>
-      <c r="L14" s="17">
-        <v>100</v>
-      </c>
-      <c r="M14" s="39" t="s">
+      <c r="L14" s="16">
+        <v>0</v>
+      </c>
+      <c r="M14" s="16">
+        <v>0</v>
+      </c>
+      <c r="N14" s="16">
+        <v>100</v>
+      </c>
+      <c r="O14" s="16">
+        <v>0</v>
+      </c>
+      <c r="P14" s="17">
+        <v>100</v>
+      </c>
+      <c r="Q14" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="N14" s="45" t="s">
+      <c r="R14" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="O14" s="34">
-        <v>0</v>
-      </c>
-      <c r="P14" s="14">
-        <v>100</v>
-      </c>
-      <c r="Q14" s="14">
-        <v>0</v>
-      </c>
-      <c r="R14" s="14">
-        <v>100</v>
-      </c>
-      <c r="S14" s="14">
+      <c r="S14" s="34">
         <v>0</v>
       </c>
       <c r="T14" s="14">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U14" s="14">
         <v>0</v>
       </c>
       <c r="V14" s="14">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W14" s="14">
         <v>0</v>
       </c>
-      <c r="X14" s="21">
-        <v>100</v>
-      </c>
-      <c r="Y14" s="74"/>
-      <c r="Z14" s="45" t="s">
+      <c r="X14" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="14">
+        <v>100</v>
+      </c>
+      <c r="AA14" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="14">
+        <v>100</v>
+      </c>
+      <c r="AC14" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="21">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="62"/>
+      <c r="AH14" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="AA14" s="13">
-        <v>100</v>
-      </c>
-      <c r="AB14" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="13">
-        <v>100</v>
-      </c>
-      <c r="AD14" s="13">
-        <v>0</v>
-      </c>
-      <c r="AE14" s="13">
-        <v>100</v>
-      </c>
-      <c r="AF14" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG14" s="13">
-        <v>100</v>
-      </c>
-      <c r="AH14" s="13">
-        <v>0</v>
-      </c>
       <c r="AI14" s="13">
         <v>100</v>
       </c>
-      <c r="AJ14" s="18">
+      <c r="AJ14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="13">
+        <v>100</v>
+      </c>
+      <c r="AL14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM14" s="13">
+        <v>100</v>
+      </c>
+      <c r="AN14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AO14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AP14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AQ14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS14" s="13">
+        <v>100</v>
+      </c>
+      <c r="AT14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AU14" s="13">
+        <v>100</v>
+      </c>
+      <c r="AV14" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A15" s="61"/>
+    <row r="15" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A15" s="58"/>
       <c r="B15" s="43" t="s">
         <v>86</v>
       </c>
@@ -2891,33 +3367,33 @@
         <v>0</v>
       </c>
       <c r="J15" s="16">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K15" s="16">
         <v>0</v>
       </c>
-      <c r="L15" s="17">
-        <v>100</v>
-      </c>
-      <c r="M15" s="41" t="s">
+      <c r="L15" s="16">
+        <v>0</v>
+      </c>
+      <c r="M15" s="16">
+        <v>0</v>
+      </c>
+      <c r="N15" s="16">
+        <v>100</v>
+      </c>
+      <c r="O15" s="16">
+        <v>0</v>
+      </c>
+      <c r="P15" s="17">
+        <v>100</v>
+      </c>
+      <c r="Q15" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="N15" s="49" t="s">
+      <c r="R15" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="O15" s="34">
-        <v>0</v>
-      </c>
-      <c r="P15" s="14">
-        <v>100</v>
-      </c>
-      <c r="Q15" s="14">
-        <v>0</v>
-      </c>
-      <c r="R15" s="14">
-        <v>100</v>
-      </c>
-      <c r="S15" s="14">
+      <c r="S15" s="34">
         <v>0</v>
       </c>
       <c r="T15" s="14">
@@ -2932,48 +3408,84 @@
       <c r="W15" s="14">
         <v>0</v>
       </c>
-      <c r="X15" s="21">
-        <v>100</v>
-      </c>
-      <c r="Y15" s="72" t="s">
+      <c r="X15" s="14">
+        <v>100</v>
+      </c>
+      <c r="Y15" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="14">
+        <v>100</v>
+      </c>
+      <c r="AE15" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="21">
+        <v>100</v>
+      </c>
+      <c r="AG15" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="Z15" s="44" t="s">
+      <c r="AH15" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="AA15" s="16">
-        <v>100</v>
-      </c>
-      <c r="AB15" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="16">
-        <v>100</v>
-      </c>
-      <c r="AD15" s="16">
-        <v>0</v>
-      </c>
-      <c r="AE15" s="16">
-        <v>100</v>
-      </c>
-      <c r="AF15" s="16">
-        <v>0</v>
-      </c>
-      <c r="AG15" s="16">
-        <v>100</v>
-      </c>
-      <c r="AH15" s="16">
-        <v>0</v>
-      </c>
       <c r="AI15" s="16">
         <v>100</v>
       </c>
-      <c r="AJ15" s="17">
+      <c r="AJ15" s="16">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="16">
+        <v>100</v>
+      </c>
+      <c r="AL15" s="16">
+        <v>0</v>
+      </c>
+      <c r="AM15" s="16">
+        <v>100</v>
+      </c>
+      <c r="AN15" s="16">
+        <v>0</v>
+      </c>
+      <c r="AO15" s="16">
+        <v>0</v>
+      </c>
+      <c r="AP15" s="16">
+        <v>0</v>
+      </c>
+      <c r="AQ15" s="16">
+        <v>0</v>
+      </c>
+      <c r="AR15" s="16">
+        <v>0</v>
+      </c>
+      <c r="AS15" s="16">
+        <v>100</v>
+      </c>
+      <c r="AT15" s="16">
+        <v>0</v>
+      </c>
+      <c r="AU15" s="16">
+        <v>100</v>
+      </c>
+      <c r="AV15" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A16" s="61"/>
+    <row r="16" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A16" s="58"/>
       <c r="B16" s="43" t="s">
         <v>87</v>
       </c>
@@ -2999,63 +3511,91 @@
         <v>0</v>
       </c>
       <c r="J16" s="16">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K16" s="16">
         <v>0</v>
       </c>
-      <c r="L16" s="17">
-        <v>100</v>
-      </c>
-      <c r="M16" s="56"/>
-      <c r="N16" s="44"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="16"/>
+      <c r="L16" s="16">
+        <v>0</v>
+      </c>
+      <c r="M16" s="16">
+        <v>0</v>
+      </c>
+      <c r="N16" s="16">
+        <v>100</v>
+      </c>
+      <c r="O16" s="16">
+        <v>0</v>
+      </c>
+      <c r="P16" s="17">
+        <v>100</v>
+      </c>
+      <c r="Q16" s="56"/>
+      <c r="R16" s="44"/>
       <c r="S16" s="16"/>
       <c r="T16" s="16"/>
       <c r="U16" s="16"/>
       <c r="V16" s="16"/>
       <c r="W16" s="16"/>
       <c r="X16" s="16"/>
-      <c r="Y16" s="73"/>
-      <c r="Z16" s="43" t="s">
+      <c r="Y16" s="16"/>
+      <c r="Z16" s="16"/>
+      <c r="AA16" s="16"/>
+      <c r="AB16" s="16"/>
+      <c r="AC16" s="16"/>
+      <c r="AD16" s="16"/>
+      <c r="AE16" s="16"/>
+      <c r="AF16" s="16"/>
+      <c r="AG16" s="61"/>
+      <c r="AH16" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="AA16" s="16">
-        <v>100</v>
-      </c>
-      <c r="AB16" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="16">
-        <v>100</v>
-      </c>
-      <c r="AD16" s="16">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="16">
-        <v>100</v>
-      </c>
-      <c r="AF16" s="16">
-        <v>0</v>
-      </c>
-      <c r="AG16" s="16">
-        <v>100</v>
-      </c>
-      <c r="AH16" s="16">
-        <v>0</v>
-      </c>
       <c r="AI16" s="16">
         <v>100</v>
       </c>
-      <c r="AJ16" s="17">
+      <c r="AJ16" s="16">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="16">
+        <v>100</v>
+      </c>
+      <c r="AL16" s="16">
+        <v>0</v>
+      </c>
+      <c r="AM16" s="16">
+        <v>100</v>
+      </c>
+      <c r="AN16" s="16">
+        <v>0</v>
+      </c>
+      <c r="AO16" s="16">
+        <v>0</v>
+      </c>
+      <c r="AP16" s="16">
+        <v>0</v>
+      </c>
+      <c r="AQ16" s="16">
+        <v>0</v>
+      </c>
+      <c r="AR16" s="16">
+        <v>0</v>
+      </c>
+      <c r="AS16" s="16">
+        <v>100</v>
+      </c>
+      <c r="AT16" s="16">
+        <v>0</v>
+      </c>
+      <c r="AU16" s="16">
+        <v>100</v>
+      </c>
+      <c r="AV16" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A17" s="62"/>
+    <row r="17" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A17" s="59"/>
       <c r="B17" s="43" t="s">
         <v>88</v>
       </c>
@@ -3081,63 +3621,91 @@
         <v>0</v>
       </c>
       <c r="J17" s="16">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K17" s="16">
         <v>0</v>
       </c>
-      <c r="L17" s="17">
-        <v>100</v>
-      </c>
-      <c r="M17" s="56"/>
-      <c r="N17" s="43"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="16"/>
+      <c r="L17" s="16">
+        <v>0</v>
+      </c>
+      <c r="M17" s="16">
+        <v>0</v>
+      </c>
+      <c r="N17" s="16">
+        <v>100</v>
+      </c>
+      <c r="O17" s="16">
+        <v>0</v>
+      </c>
+      <c r="P17" s="17">
+        <v>100</v>
+      </c>
+      <c r="Q17" s="56"/>
+      <c r="R17" s="43"/>
       <c r="S17" s="16"/>
       <c r="T17" s="16"/>
       <c r="U17" s="16"/>
       <c r="V17" s="16"/>
       <c r="W17" s="16"/>
       <c r="X17" s="16"/>
-      <c r="Y17" s="73"/>
-      <c r="Z17" s="50" t="s">
+      <c r="Y17" s="16"/>
+      <c r="Z17" s="16"/>
+      <c r="AA17" s="16"/>
+      <c r="AB17" s="16"/>
+      <c r="AC17" s="16"/>
+      <c r="AD17" s="16"/>
+      <c r="AE17" s="16"/>
+      <c r="AF17" s="16"/>
+      <c r="AG17" s="61"/>
+      <c r="AH17" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="AA17" s="29">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="16">
-        <v>100</v>
-      </c>
-      <c r="AC17" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD17" s="16">
-        <v>100</v>
-      </c>
-      <c r="AE17" s="16">
-        <v>100</v>
-      </c>
-      <c r="AF17" s="16">
-        <v>0</v>
-      </c>
-      <c r="AG17" s="16">
-        <v>0</v>
-      </c>
-      <c r="AH17" s="16">
-        <v>100</v>
-      </c>
-      <c r="AI17" s="16">
-        <v>0</v>
-      </c>
-      <c r="AJ17" s="17">
+      <c r="AI17" s="29">
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="16">
+        <v>100</v>
+      </c>
+      <c r="AK17" s="16">
+        <v>0</v>
+      </c>
+      <c r="AL17" s="16">
+        <v>100</v>
+      </c>
+      <c r="AM17" s="16">
+        <v>100</v>
+      </c>
+      <c r="AN17" s="16">
+        <v>0</v>
+      </c>
+      <c r="AO17" s="16">
+        <v>0</v>
+      </c>
+      <c r="AP17" s="16">
+        <v>0</v>
+      </c>
+      <c r="AQ17" s="16">
+        <v>0</v>
+      </c>
+      <c r="AR17" s="16">
+        <v>0</v>
+      </c>
+      <c r="AS17" s="16">
+        <v>0</v>
+      </c>
+      <c r="AT17" s="16">
+        <v>100</v>
+      </c>
+      <c r="AU17" s="16">
+        <v>0</v>
+      </c>
+      <c r="AV17" s="17">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A18" s="63" t="s">
+    <row r="18" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A18" s="87" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="44" t="s">
@@ -3162,55 +3730,79 @@
         <v>80</v>
       </c>
       <c r="I18" s="12">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J18" s="12">
         <v>0</v>
       </c>
       <c r="K18" s="12">
-        <v>100</v>
-      </c>
-      <c r="L18" s="19">
-        <v>0</v>
-      </c>
-      <c r="N18" s="22"/>
-      <c r="Y18" s="73"/>
-      <c r="Z18" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="L18" s="12">
+        <v>0</v>
+      </c>
+      <c r="M18" s="12">
+        <v>100</v>
+      </c>
+      <c r="N18" s="12">
+        <v>0</v>
+      </c>
+      <c r="O18" s="12">
+        <v>100</v>
+      </c>
+      <c r="P18" s="19">
+        <v>0</v>
+      </c>
+      <c r="R18" s="22"/>
+      <c r="AG18" s="61"/>
+      <c r="AH18" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="AA18" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="16">
-        <v>100</v>
-      </c>
-      <c r="AC18" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD18" s="16">
-        <v>100</v>
-      </c>
-      <c r="AE18" s="16">
-        <v>100</v>
-      </c>
-      <c r="AF18" s="16">
-        <v>0</v>
-      </c>
-      <c r="AG18" s="16">
-        <v>0</v>
-      </c>
-      <c r="AH18" s="16">
-        <v>100</v>
-      </c>
       <c r="AI18" s="16">
         <v>0</v>
       </c>
-      <c r="AJ18" s="17">
+      <c r="AJ18" s="16">
+        <v>100</v>
+      </c>
+      <c r="AK18" s="16">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="16">
+        <v>100</v>
+      </c>
+      <c r="AM18" s="16">
+        <v>100</v>
+      </c>
+      <c r="AN18" s="16">
+        <v>0</v>
+      </c>
+      <c r="AO18" s="16">
+        <v>0</v>
+      </c>
+      <c r="AP18" s="16">
+        <v>0</v>
+      </c>
+      <c r="AQ18" s="16">
+        <v>0</v>
+      </c>
+      <c r="AR18" s="16">
+        <v>0</v>
+      </c>
+      <c r="AS18" s="16">
+        <v>0</v>
+      </c>
+      <c r="AT18" s="16">
+        <v>100</v>
+      </c>
+      <c r="AU18" s="16">
+        <v>0</v>
+      </c>
+      <c r="AV18" s="17">
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A19" s="64"/>
+    <row r="19" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A19" s="88"/>
       <c r="B19" s="43" t="s">
         <v>20</v>
       </c>
@@ -3233,55 +3825,79 @@
         <v>80</v>
       </c>
       <c r="I19" s="13">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J19" s="13">
         <v>0</v>
       </c>
       <c r="K19" s="13">
-        <v>100</v>
-      </c>
-      <c r="L19" s="18">
-        <v>0</v>
-      </c>
-      <c r="N19" s="22"/>
-      <c r="Y19" s="73"/>
-      <c r="Z19" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="L19" s="13">
+        <v>0</v>
+      </c>
+      <c r="M19" s="13">
+        <v>100</v>
+      </c>
+      <c r="N19" s="13">
+        <v>0</v>
+      </c>
+      <c r="O19" s="13">
+        <v>100</v>
+      </c>
+      <c r="P19" s="18">
+        <v>0</v>
+      </c>
+      <c r="R19" s="22"/>
+      <c r="AG19" s="61"/>
+      <c r="AH19" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="AA19" s="16">
-        <v>100</v>
-      </c>
-      <c r="AB19" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC19" s="16">
-        <v>100</v>
-      </c>
-      <c r="AD19" s="16">
-        <v>0</v>
-      </c>
-      <c r="AE19" s="16">
-        <v>100</v>
-      </c>
-      <c r="AF19" s="16">
-        <v>0</v>
-      </c>
-      <c r="AG19" s="16">
-        <v>100</v>
-      </c>
-      <c r="AH19" s="16">
-        <v>0</v>
-      </c>
       <c r="AI19" s="16">
         <v>100</v>
       </c>
-      <c r="AJ19" s="17">
+      <c r="AJ19" s="16">
+        <v>0</v>
+      </c>
+      <c r="AK19" s="16">
+        <v>100</v>
+      </c>
+      <c r="AL19" s="16">
+        <v>0</v>
+      </c>
+      <c r="AM19" s="16">
+        <v>100</v>
+      </c>
+      <c r="AN19" s="16">
+        <v>0</v>
+      </c>
+      <c r="AO19" s="16">
+        <v>0</v>
+      </c>
+      <c r="AP19" s="16">
+        <v>0</v>
+      </c>
+      <c r="AQ19" s="16">
+        <v>0</v>
+      </c>
+      <c r="AR19" s="16">
+        <v>0</v>
+      </c>
+      <c r="AS19" s="16">
+        <v>100</v>
+      </c>
+      <c r="AT19" s="16">
+        <v>0</v>
+      </c>
+      <c r="AU19" s="16">
+        <v>100</v>
+      </c>
+      <c r="AV19" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A20" s="63" t="s">
+    <row r="20" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A20" s="87" t="s">
         <v>23</v>
       </c>
       <c r="B20" s="44" t="s">
@@ -3306,65 +3922,93 @@
         <v>80</v>
       </c>
       <c r="I20" s="16">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J20" s="16">
         <v>0</v>
       </c>
       <c r="K20" s="16">
-        <v>100</v>
-      </c>
-      <c r="L20" s="17">
-        <v>0</v>
-      </c>
-      <c r="N20" s="22"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="16"/>
-      <c r="R20" s="16"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="16">
+        <v>0</v>
+      </c>
+      <c r="M20" s="16">
+        <v>100</v>
+      </c>
+      <c r="N20" s="16">
+        <v>0</v>
+      </c>
+      <c r="O20" s="16">
+        <v>100</v>
+      </c>
+      <c r="P20" s="17">
+        <v>0</v>
+      </c>
+      <c r="R20" s="22"/>
       <c r="S20" s="16"/>
       <c r="T20" s="16"/>
       <c r="U20" s="16"/>
       <c r="V20" s="16"/>
       <c r="W20" s="16"/>
-      <c r="X20" s="17"/>
-      <c r="Y20" s="73"/>
-      <c r="Z20" s="43" t="s">
+      <c r="X20" s="16"/>
+      <c r="Y20" s="16"/>
+      <c r="Z20" s="16"/>
+      <c r="AA20" s="16"/>
+      <c r="AB20" s="16"/>
+      <c r="AC20" s="16"/>
+      <c r="AD20" s="16"/>
+      <c r="AE20" s="16"/>
+      <c r="AF20" s="17"/>
+      <c r="AG20" s="61"/>
+      <c r="AH20" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="AA20" s="16">
-        <v>100</v>
-      </c>
-      <c r="AB20" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC20" s="16">
-        <v>100</v>
-      </c>
-      <c r="AD20" s="16">
-        <v>0</v>
-      </c>
-      <c r="AE20" s="16">
-        <v>100</v>
-      </c>
-      <c r="AF20" s="16">
-        <v>0</v>
-      </c>
-      <c r="AG20" s="16">
-        <v>100</v>
-      </c>
-      <c r="AH20" s="16">
-        <v>0</v>
-      </c>
       <c r="AI20" s="16">
         <v>100</v>
       </c>
-      <c r="AJ20" s="17">
+      <c r="AJ20" s="16">
+        <v>0</v>
+      </c>
+      <c r="AK20" s="16">
+        <v>100</v>
+      </c>
+      <c r="AL20" s="16">
+        <v>0</v>
+      </c>
+      <c r="AM20" s="16">
+        <v>100</v>
+      </c>
+      <c r="AN20" s="16">
+        <v>0</v>
+      </c>
+      <c r="AO20" s="16">
+        <v>0</v>
+      </c>
+      <c r="AP20" s="16">
+        <v>0</v>
+      </c>
+      <c r="AQ20" s="16">
+        <v>0</v>
+      </c>
+      <c r="AR20" s="16">
+        <v>0</v>
+      </c>
+      <c r="AS20" s="16">
+        <v>100</v>
+      </c>
+      <c r="AT20" s="16">
+        <v>0</v>
+      </c>
+      <c r="AU20" s="16">
+        <v>100</v>
+      </c>
+      <c r="AV20" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A21" s="64"/>
+    <row r="21" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A21" s="88"/>
       <c r="B21" s="45" t="s">
         <v>26</v>
       </c>
@@ -3387,65 +4031,93 @@
         <v>80</v>
       </c>
       <c r="I21" s="16">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J21" s="16">
         <v>0</v>
       </c>
       <c r="K21" s="16">
-        <v>100</v>
-      </c>
-      <c r="L21" s="17">
-        <v>0</v>
-      </c>
-      <c r="N21" s="22"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="16"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="16">
+        <v>0</v>
+      </c>
+      <c r="M21" s="16">
+        <v>100</v>
+      </c>
+      <c r="N21" s="16">
+        <v>0</v>
+      </c>
+      <c r="O21" s="16">
+        <v>100</v>
+      </c>
+      <c r="P21" s="17">
+        <v>0</v>
+      </c>
+      <c r="R21" s="22"/>
       <c r="S21" s="16"/>
       <c r="T21" s="16"/>
       <c r="U21" s="16"/>
       <c r="V21" s="16"/>
       <c r="W21" s="16"/>
-      <c r="X21" s="17"/>
-      <c r="Y21" s="73"/>
-      <c r="Z21" s="43" t="s">
+      <c r="X21" s="16"/>
+      <c r="Y21" s="16"/>
+      <c r="Z21" s="16"/>
+      <c r="AA21" s="16"/>
+      <c r="AB21" s="16"/>
+      <c r="AC21" s="16"/>
+      <c r="AD21" s="16"/>
+      <c r="AE21" s="16"/>
+      <c r="AF21" s="17"/>
+      <c r="AG21" s="61"/>
+      <c r="AH21" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="AA21" s="16">
-        <v>100</v>
-      </c>
-      <c r="AB21" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC21" s="16">
-        <v>100</v>
-      </c>
-      <c r="AD21" s="16">
-        <v>0</v>
-      </c>
-      <c r="AE21" s="16">
-        <v>100</v>
-      </c>
-      <c r="AF21" s="16">
-        <v>0</v>
-      </c>
-      <c r="AG21" s="16">
-        <v>100</v>
-      </c>
-      <c r="AH21" s="16">
-        <v>0</v>
-      </c>
       <c r="AI21" s="16">
         <v>100</v>
       </c>
-      <c r="AJ21" s="17">
+      <c r="AJ21" s="16">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="16">
+        <v>100</v>
+      </c>
+      <c r="AL21" s="16">
+        <v>0</v>
+      </c>
+      <c r="AM21" s="16">
+        <v>100</v>
+      </c>
+      <c r="AN21" s="16">
+        <v>0</v>
+      </c>
+      <c r="AO21" s="16">
+        <v>0</v>
+      </c>
+      <c r="AP21" s="16">
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="16">
+        <v>0</v>
+      </c>
+      <c r="AR21" s="16">
+        <v>0</v>
+      </c>
+      <c r="AS21" s="16">
+        <v>100</v>
+      </c>
+      <c r="AT21" s="16">
+        <v>0</v>
+      </c>
+      <c r="AU21" s="16">
+        <v>100</v>
+      </c>
+      <c r="AV21" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A22" s="60" t="s">
+    <row r="22" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A22" s="57" t="s">
         <v>46</v>
       </c>
       <c r="B22" s="44" t="s">
@@ -3473,62 +4145,90 @@
         <v>0</v>
       </c>
       <c r="J22" s="12">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K22" s="12">
         <v>0</v>
       </c>
-      <c r="L22" s="19">
-        <v>100</v>
-      </c>
-      <c r="N22" s="22"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="16"/>
-      <c r="R22" s="16"/>
+      <c r="L22" s="12">
+        <v>0</v>
+      </c>
+      <c r="M22" s="12">
+        <v>0</v>
+      </c>
+      <c r="N22" s="12">
+        <v>100</v>
+      </c>
+      <c r="O22" s="12">
+        <v>0</v>
+      </c>
+      <c r="P22" s="19">
+        <v>100</v>
+      </c>
+      <c r="R22" s="22"/>
       <c r="S22" s="16"/>
       <c r="T22" s="16"/>
       <c r="U22" s="16"/>
       <c r="V22" s="16"/>
       <c r="W22" s="16"/>
-      <c r="X22" s="17"/>
-      <c r="Y22" s="74"/>
-      <c r="Z22" s="45" t="s">
+      <c r="X22" s="16"/>
+      <c r="Y22" s="16"/>
+      <c r="Z22" s="16"/>
+      <c r="AA22" s="16"/>
+      <c r="AB22" s="16"/>
+      <c r="AC22" s="16"/>
+      <c r="AD22" s="16"/>
+      <c r="AE22" s="16"/>
+      <c r="AF22" s="17"/>
+      <c r="AG22" s="62"/>
+      <c r="AH22" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="AA22" s="13">
-        <v>100</v>
-      </c>
-      <c r="AB22" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC22" s="13">
-        <v>100</v>
-      </c>
-      <c r="AD22" s="13">
-        <v>0</v>
-      </c>
-      <c r="AE22" s="13">
-        <v>100</v>
-      </c>
-      <c r="AF22" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG22" s="13">
-        <v>100</v>
-      </c>
-      <c r="AH22" s="13">
-        <v>0</v>
-      </c>
       <c r="AI22" s="13">
         <v>100</v>
       </c>
-      <c r="AJ22" s="18">
+      <c r="AJ22" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK22" s="13">
+        <v>100</v>
+      </c>
+      <c r="AL22" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM22" s="13">
+        <v>100</v>
+      </c>
+      <c r="AN22" s="13">
+        <v>0</v>
+      </c>
+      <c r="AO22" s="13">
+        <v>0</v>
+      </c>
+      <c r="AP22" s="13">
+        <v>0</v>
+      </c>
+      <c r="AQ22" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR22" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS22" s="13">
+        <v>100</v>
+      </c>
+      <c r="AT22" s="13">
+        <v>0</v>
+      </c>
+      <c r="AU22" s="13">
+        <v>100</v>
+      </c>
+      <c r="AV22" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A23" s="61"/>
+    <row r="23" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A23" s="58"/>
       <c r="B23" s="46" t="s">
         <v>49</v>
       </c>
@@ -3554,64 +4254,92 @@
         <v>0</v>
       </c>
       <c r="J23" s="16">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K23" s="16">
         <v>0</v>
       </c>
-      <c r="L23" s="17">
-        <v>100</v>
-      </c>
-      <c r="N23" s="22"/>
-      <c r="O23" s="16"/>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="16"/>
-      <c r="R23" s="16"/>
+      <c r="L23" s="16">
+        <v>0</v>
+      </c>
+      <c r="M23" s="16">
+        <v>0</v>
+      </c>
+      <c r="N23" s="16">
+        <v>100</v>
+      </c>
+      <c r="O23" s="16">
+        <v>0</v>
+      </c>
+      <c r="P23" s="17">
+        <v>100</v>
+      </c>
+      <c r="R23" s="22"/>
       <c r="S23" s="16"/>
       <c r="T23" s="16"/>
       <c r="U23" s="16"/>
       <c r="V23" s="16"/>
       <c r="W23" s="16"/>
-      <c r="X23" s="17"/>
-      <c r="Y23" s="60" t="s">
+      <c r="X23" s="16"/>
+      <c r="Y23" s="16"/>
+      <c r="Z23" s="16"/>
+      <c r="AA23" s="16"/>
+      <c r="AB23" s="16"/>
+      <c r="AC23" s="16"/>
+      <c r="AD23" s="16"/>
+      <c r="AE23" s="16"/>
+      <c r="AF23" s="17"/>
+      <c r="AG23" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="Z23" s="43" t="s">
+      <c r="AH23" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="AA23" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB23" s="16">
-        <v>100</v>
-      </c>
-      <c r="AC23" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD23" s="16">
-        <v>100</v>
-      </c>
-      <c r="AE23" s="16">
-        <v>0</v>
-      </c>
-      <c r="AF23" s="16">
-        <v>100</v>
-      </c>
-      <c r="AG23" s="16">
-        <v>0</v>
-      </c>
-      <c r="AH23" s="16">
-        <v>100</v>
-      </c>
       <c r="AI23" s="16">
         <v>0</v>
       </c>
-      <c r="AJ23" s="17">
+      <c r="AJ23" s="16">
+        <v>100</v>
+      </c>
+      <c r="AK23" s="16">
+        <v>0</v>
+      </c>
+      <c r="AL23" s="16">
+        <v>100</v>
+      </c>
+      <c r="AM23" s="16">
+        <v>0</v>
+      </c>
+      <c r="AN23" s="16">
+        <v>100</v>
+      </c>
+      <c r="AO23" s="16">
+        <v>0</v>
+      </c>
+      <c r="AP23" s="16">
+        <v>0</v>
+      </c>
+      <c r="AQ23" s="16">
+        <v>0</v>
+      </c>
+      <c r="AR23" s="16">
+        <v>0</v>
+      </c>
+      <c r="AS23" s="16">
+        <v>0</v>
+      </c>
+      <c r="AT23" s="16">
+        <v>100</v>
+      </c>
+      <c r="AU23" s="16">
+        <v>0</v>
+      </c>
+      <c r="AV23" s="17">
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:36" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="62"/>
+    <row r="24" spans="1:48" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="59"/>
       <c r="B24" s="47" t="s">
         <v>52</v>
       </c>
@@ -3637,62 +4365,90 @@
         <v>0</v>
       </c>
       <c r="J24" s="13">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K24" s="13">
         <v>0</v>
       </c>
-      <c r="L24" s="18">
-        <v>100</v>
-      </c>
-      <c r="N24" s="22"/>
-      <c r="O24" s="16"/>
-      <c r="P24" s="16"/>
-      <c r="Q24" s="16"/>
-      <c r="R24" s="16"/>
+      <c r="L24" s="13">
+        <v>0</v>
+      </c>
+      <c r="M24" s="13">
+        <v>0</v>
+      </c>
+      <c r="N24" s="13">
+        <v>100</v>
+      </c>
+      <c r="O24" s="13">
+        <v>0</v>
+      </c>
+      <c r="P24" s="18">
+        <v>100</v>
+      </c>
+      <c r="R24" s="22"/>
       <c r="S24" s="16"/>
       <c r="T24" s="16"/>
       <c r="U24" s="16"/>
       <c r="V24" s="16"/>
       <c r="W24" s="16"/>
-      <c r="X24" s="17"/>
-      <c r="Y24" s="61"/>
-      <c r="Z24" s="46" t="s">
+      <c r="X24" s="16"/>
+      <c r="Y24" s="16"/>
+      <c r="Z24" s="16"/>
+      <c r="AA24" s="16"/>
+      <c r="AB24" s="16"/>
+      <c r="AC24" s="16"/>
+      <c r="AD24" s="16"/>
+      <c r="AE24" s="16"/>
+      <c r="AF24" s="17"/>
+      <c r="AG24" s="58"/>
+      <c r="AH24" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="AA24" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB24" s="16">
-        <v>100</v>
-      </c>
-      <c r="AC24" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD24" s="16">
-        <v>100</v>
-      </c>
-      <c r="AE24" s="16">
-        <v>0</v>
-      </c>
-      <c r="AF24" s="16">
-        <v>100</v>
-      </c>
-      <c r="AG24" s="16">
-        <v>0</v>
-      </c>
-      <c r="AH24" s="16">
-        <v>100</v>
-      </c>
       <c r="AI24" s="16">
         <v>0</v>
       </c>
-      <c r="AJ24" s="17">
+      <c r="AJ24" s="16">
+        <v>100</v>
+      </c>
+      <c r="AK24" s="16">
+        <v>0</v>
+      </c>
+      <c r="AL24" s="16">
+        <v>100</v>
+      </c>
+      <c r="AM24" s="16">
+        <v>0</v>
+      </c>
+      <c r="AN24" s="16">
+        <v>100</v>
+      </c>
+      <c r="AO24" s="16">
+        <v>0</v>
+      </c>
+      <c r="AP24" s="16">
+        <v>0</v>
+      </c>
+      <c r="AQ24" s="16">
+        <v>0</v>
+      </c>
+      <c r="AR24" s="16">
+        <v>0</v>
+      </c>
+      <c r="AS24" s="16">
+        <v>0</v>
+      </c>
+      <c r="AT24" s="16">
+        <v>100</v>
+      </c>
+      <c r="AU24" s="16">
+        <v>0</v>
+      </c>
+      <c r="AV24" s="17">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:36" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="60" t="s">
+    <row r="25" spans="1:48" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="57" t="s">
         <v>55</v>
       </c>
       <c r="B25" s="44" t="s">
@@ -3720,62 +4476,90 @@
         <v>0</v>
       </c>
       <c r="J25" s="12">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K25" s="12">
         <v>0</v>
       </c>
-      <c r="L25" s="19">
-        <v>100</v>
-      </c>
-      <c r="N25" s="22"/>
-      <c r="O25" s="16"/>
-      <c r="P25" s="16"/>
-      <c r="Q25" s="16"/>
-      <c r="R25" s="16"/>
+      <c r="L25" s="12">
+        <v>0</v>
+      </c>
+      <c r="M25" s="12">
+        <v>0</v>
+      </c>
+      <c r="N25" s="12">
+        <v>100</v>
+      </c>
+      <c r="O25" s="12">
+        <v>0</v>
+      </c>
+      <c r="P25" s="19">
+        <v>100</v>
+      </c>
+      <c r="R25" s="22"/>
       <c r="S25" s="16"/>
       <c r="T25" s="16"/>
       <c r="U25" s="16"/>
       <c r="V25" s="16"/>
       <c r="W25" s="16"/>
-      <c r="X25" s="17"/>
-      <c r="Y25" s="61"/>
-      <c r="Z25" s="46" t="s">
+      <c r="X25" s="16"/>
+      <c r="Y25" s="16"/>
+      <c r="Z25" s="16"/>
+      <c r="AA25" s="16"/>
+      <c r="AB25" s="16"/>
+      <c r="AC25" s="16"/>
+      <c r="AD25" s="16"/>
+      <c r="AE25" s="16"/>
+      <c r="AF25" s="17"/>
+      <c r="AG25" s="58"/>
+      <c r="AH25" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="AA25" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB25" s="16">
-        <v>100</v>
-      </c>
-      <c r="AC25" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD25" s="16">
-        <v>100</v>
-      </c>
-      <c r="AE25" s="16">
-        <v>0</v>
-      </c>
-      <c r="AF25" s="16">
-        <v>100</v>
-      </c>
-      <c r="AG25" s="16">
-        <v>0</v>
-      </c>
-      <c r="AH25" s="16">
-        <v>100</v>
-      </c>
       <c r="AI25" s="16">
         <v>0</v>
       </c>
-      <c r="AJ25" s="17">
+      <c r="AJ25" s="16">
+        <v>100</v>
+      </c>
+      <c r="AK25" s="16">
+        <v>0</v>
+      </c>
+      <c r="AL25" s="16">
+        <v>100</v>
+      </c>
+      <c r="AM25" s="16">
+        <v>0</v>
+      </c>
+      <c r="AN25" s="16">
+        <v>100</v>
+      </c>
+      <c r="AO25" s="16">
+        <v>0</v>
+      </c>
+      <c r="AP25" s="16">
+        <v>0</v>
+      </c>
+      <c r="AQ25" s="16">
+        <v>0</v>
+      </c>
+      <c r="AR25" s="16">
+        <v>0</v>
+      </c>
+      <c r="AS25" s="16">
+        <v>0</v>
+      </c>
+      <c r="AT25" s="16">
+        <v>100</v>
+      </c>
+      <c r="AU25" s="16">
+        <v>0</v>
+      </c>
+      <c r="AV25" s="17">
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A26" s="61"/>
+    <row r="26" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A26" s="58"/>
       <c r="B26" s="46" t="s">
         <v>49</v>
       </c>
@@ -3801,62 +4585,90 @@
         <v>0</v>
       </c>
       <c r="J26" s="16">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K26" s="16">
         <v>0</v>
       </c>
-      <c r="L26" s="17">
-        <v>100</v>
-      </c>
-      <c r="N26" s="22"/>
-      <c r="O26" s="16"/>
-      <c r="P26" s="16"/>
-      <c r="Q26" s="16"/>
-      <c r="R26" s="16"/>
+      <c r="L26" s="16">
+        <v>0</v>
+      </c>
+      <c r="M26" s="16">
+        <v>0</v>
+      </c>
+      <c r="N26" s="16">
+        <v>100</v>
+      </c>
+      <c r="O26" s="16">
+        <v>0</v>
+      </c>
+      <c r="P26" s="17">
+        <v>100</v>
+      </c>
+      <c r="R26" s="22"/>
       <c r="S26" s="16"/>
       <c r="T26" s="16"/>
       <c r="U26" s="16"/>
       <c r="V26" s="16"/>
       <c r="W26" s="16"/>
-      <c r="X26" s="17"/>
-      <c r="Y26" s="61"/>
-      <c r="Z26" s="51" t="s">
+      <c r="X26" s="16"/>
+      <c r="Y26" s="16"/>
+      <c r="Z26" s="16"/>
+      <c r="AA26" s="16"/>
+      <c r="AB26" s="16"/>
+      <c r="AC26" s="16"/>
+      <c r="AD26" s="16"/>
+      <c r="AE26" s="16"/>
+      <c r="AF26" s="17"/>
+      <c r="AG26" s="58"/>
+      <c r="AH26" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="AA26" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB26" s="16">
-        <v>100</v>
-      </c>
-      <c r="AC26" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD26" s="16">
-        <v>100</v>
-      </c>
-      <c r="AE26" s="16">
-        <v>0</v>
-      </c>
-      <c r="AF26" s="16">
-        <v>100</v>
-      </c>
-      <c r="AG26" s="16">
-        <v>0</v>
-      </c>
-      <c r="AH26" s="16">
-        <v>100</v>
-      </c>
       <c r="AI26" s="16">
         <v>0</v>
       </c>
-      <c r="AJ26" s="17">
+      <c r="AJ26" s="16">
+        <v>100</v>
+      </c>
+      <c r="AK26" s="16">
+        <v>0</v>
+      </c>
+      <c r="AL26" s="16">
+        <v>100</v>
+      </c>
+      <c r="AM26" s="16">
+        <v>0</v>
+      </c>
+      <c r="AN26" s="16">
+        <v>100</v>
+      </c>
+      <c r="AO26" s="16">
+        <v>0</v>
+      </c>
+      <c r="AP26" s="16">
+        <v>0</v>
+      </c>
+      <c r="AQ26" s="16">
+        <v>0</v>
+      </c>
+      <c r="AR26" s="16">
+        <v>0</v>
+      </c>
+      <c r="AS26" s="16">
+        <v>0</v>
+      </c>
+      <c r="AT26" s="16">
+        <v>100</v>
+      </c>
+      <c r="AU26" s="16">
+        <v>0</v>
+      </c>
+      <c r="AV26" s="17">
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:36" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="61"/>
+    <row r="27" spans="1:48" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="58"/>
       <c r="B27" s="46" t="s">
         <v>52</v>
       </c>
@@ -3882,63 +4694,91 @@
         <v>0</v>
       </c>
       <c r="J27" s="16">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K27" s="16">
         <v>0</v>
       </c>
-      <c r="L27" s="17">
-        <v>100</v>
-      </c>
-      <c r="M27" s="16"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="16"/>
-      <c r="P27" s="16"/>
+      <c r="L27" s="16">
+        <v>0</v>
+      </c>
+      <c r="M27" s="16">
+        <v>0</v>
+      </c>
+      <c r="N27" s="16">
+        <v>100</v>
+      </c>
+      <c r="O27" s="16">
+        <v>0</v>
+      </c>
+      <c r="P27" s="17">
+        <v>100</v>
+      </c>
       <c r="Q27" s="16"/>
-      <c r="R27" s="16"/>
+      <c r="R27" s="24"/>
       <c r="S27" s="16"/>
       <c r="T27" s="16"/>
       <c r="U27" s="16"/>
       <c r="V27" s="16"/>
       <c r="W27" s="16"/>
-      <c r="X27" s="17"/>
-      <c r="Y27" s="62"/>
-      <c r="Z27" s="51" t="s">
+      <c r="X27" s="16"/>
+      <c r="Y27" s="16"/>
+      <c r="Z27" s="16"/>
+      <c r="AA27" s="16"/>
+      <c r="AB27" s="16"/>
+      <c r="AC27" s="16"/>
+      <c r="AD27" s="16"/>
+      <c r="AE27" s="16"/>
+      <c r="AF27" s="17"/>
+      <c r="AG27" s="59"/>
+      <c r="AH27" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="AA27" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB27" s="16">
-        <v>100</v>
-      </c>
-      <c r="AC27" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD27" s="16">
-        <v>100</v>
-      </c>
-      <c r="AE27" s="16">
-        <v>0</v>
-      </c>
-      <c r="AF27" s="16">
-        <v>100</v>
-      </c>
-      <c r="AG27" s="16">
-        <v>0</v>
-      </c>
-      <c r="AH27" s="16">
-        <v>100</v>
-      </c>
       <c r="AI27" s="16">
         <v>0</v>
       </c>
-      <c r="AJ27" s="17">
+      <c r="AJ27" s="16">
+        <v>100</v>
+      </c>
+      <c r="AK27" s="16">
+        <v>0</v>
+      </c>
+      <c r="AL27" s="16">
+        <v>100</v>
+      </c>
+      <c r="AM27" s="16">
+        <v>0</v>
+      </c>
+      <c r="AN27" s="16">
+        <v>100</v>
+      </c>
+      <c r="AO27" s="16">
+        <v>0</v>
+      </c>
+      <c r="AP27" s="16">
+        <v>0</v>
+      </c>
+      <c r="AQ27" s="16">
+        <v>0</v>
+      </c>
+      <c r="AR27" s="16">
+        <v>0</v>
+      </c>
+      <c r="AS27" s="16">
+        <v>0</v>
+      </c>
+      <c r="AT27" s="16">
+        <v>100</v>
+      </c>
+      <c r="AU27" s="16">
+        <v>0</v>
+      </c>
+      <c r="AV27" s="17">
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A28" s="61"/>
+    <row r="28" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A28" s="58"/>
       <c r="B28" s="46" t="s">
         <v>61</v>
       </c>
@@ -3964,65 +4804,93 @@
         <v>0</v>
       </c>
       <c r="J28" s="16">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K28" s="16">
         <v>0</v>
       </c>
-      <c r="L28" s="17">
-        <v>100</v>
-      </c>
-      <c r="M28" s="38"/>
-      <c r="N28" s="24"/>
-      <c r="O28" s="16"/>
-      <c r="P28" s="16"/>
-      <c r="Q28" s="16"/>
-      <c r="R28" s="16"/>
+      <c r="L28" s="16">
+        <v>0</v>
+      </c>
+      <c r="M28" s="16">
+        <v>0</v>
+      </c>
+      <c r="N28" s="16">
+        <v>100</v>
+      </c>
+      <c r="O28" s="16">
+        <v>0</v>
+      </c>
+      <c r="P28" s="17">
+        <v>100</v>
+      </c>
+      <c r="Q28" s="38"/>
+      <c r="R28" s="24"/>
       <c r="S28" s="16"/>
       <c r="T28" s="16"/>
       <c r="U28" s="16"/>
       <c r="V28" s="16"/>
       <c r="W28" s="16"/>
-      <c r="X28" s="17"/>
-      <c r="Y28" s="60" t="s">
+      <c r="X28" s="16"/>
+      <c r="Y28" s="16"/>
+      <c r="Z28" s="16"/>
+      <c r="AA28" s="16"/>
+      <c r="AB28" s="16"/>
+      <c r="AC28" s="16"/>
+      <c r="AD28" s="16"/>
+      <c r="AE28" s="16"/>
+      <c r="AF28" s="17"/>
+      <c r="AG28" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="Z28" s="44" t="s">
+      <c r="AH28" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="AA28" s="12">
-        <v>0</v>
-      </c>
-      <c r="AB28" s="12">
-        <v>100</v>
-      </c>
-      <c r="AC28" s="12">
-        <v>0</v>
-      </c>
-      <c r="AD28" s="12">
-        <v>100</v>
-      </c>
-      <c r="AE28" s="12">
-        <v>0</v>
-      </c>
-      <c r="AF28" s="12">
-        <v>100</v>
-      </c>
-      <c r="AG28" s="12">
-        <v>0</v>
-      </c>
-      <c r="AH28" s="12">
-        <v>100</v>
-      </c>
       <c r="AI28" s="12">
         <v>0</v>
       </c>
-      <c r="AJ28" s="19">
+      <c r="AJ28" s="12">
+        <v>100</v>
+      </c>
+      <c r="AK28" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL28" s="12">
+        <v>100</v>
+      </c>
+      <c r="AM28" s="12">
+        <v>0</v>
+      </c>
+      <c r="AN28" s="12">
+        <v>100</v>
+      </c>
+      <c r="AO28" s="12">
+        <v>0</v>
+      </c>
+      <c r="AP28" s="12">
+        <v>0</v>
+      </c>
+      <c r="AQ28" s="12">
+        <v>0</v>
+      </c>
+      <c r="AR28" s="12">
+        <v>0</v>
+      </c>
+      <c r="AS28" s="12">
+        <v>0</v>
+      </c>
+      <c r="AT28" s="12">
+        <v>100</v>
+      </c>
+      <c r="AU28" s="12">
+        <v>0</v>
+      </c>
+      <c r="AV28" s="19">
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A29" s="61"/>
+    <row r="29" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A29" s="58"/>
       <c r="B29" s="46" t="s">
         <v>63</v>
       </c>
@@ -4048,63 +4916,91 @@
         <v>0</v>
       </c>
       <c r="J29" s="16">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K29" s="16">
         <v>0</v>
       </c>
-      <c r="L29" s="17">
-        <v>100</v>
-      </c>
-      <c r="M29" s="38"/>
-      <c r="N29" s="24"/>
-      <c r="O29" s="16"/>
-      <c r="P29" s="16"/>
-      <c r="Q29" s="16"/>
-      <c r="R29" s="16"/>
+      <c r="L29" s="16">
+        <v>0</v>
+      </c>
+      <c r="M29" s="16">
+        <v>0</v>
+      </c>
+      <c r="N29" s="16">
+        <v>100</v>
+      </c>
+      <c r="O29" s="16">
+        <v>0</v>
+      </c>
+      <c r="P29" s="17">
+        <v>100</v>
+      </c>
+      <c r="Q29" s="38"/>
+      <c r="R29" s="24"/>
       <c r="S29" s="16"/>
       <c r="T29" s="16"/>
       <c r="U29" s="16"/>
       <c r="V29" s="16"/>
       <c r="W29" s="16"/>
-      <c r="X29" s="17"/>
-      <c r="Y29" s="61"/>
-      <c r="Z29" s="46" t="s">
+      <c r="X29" s="16"/>
+      <c r="Y29" s="16"/>
+      <c r="Z29" s="16"/>
+      <c r="AA29" s="16"/>
+      <c r="AB29" s="16"/>
+      <c r="AC29" s="16"/>
+      <c r="AD29" s="16"/>
+      <c r="AE29" s="16"/>
+      <c r="AF29" s="17"/>
+      <c r="AG29" s="58"/>
+      <c r="AH29" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="AA29" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB29" s="16">
-        <v>100</v>
-      </c>
-      <c r="AC29" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD29" s="16">
-        <v>100</v>
-      </c>
-      <c r="AE29" s="16">
-        <v>0</v>
-      </c>
-      <c r="AF29" s="16">
-        <v>100</v>
-      </c>
-      <c r="AG29" s="16">
-        <v>0</v>
-      </c>
-      <c r="AH29" s="16">
-        <v>100</v>
-      </c>
       <c r="AI29" s="16">
         <v>0</v>
       </c>
-      <c r="AJ29" s="17">
+      <c r="AJ29" s="16">
+        <v>100</v>
+      </c>
+      <c r="AK29" s="16">
+        <v>0</v>
+      </c>
+      <c r="AL29" s="16">
+        <v>100</v>
+      </c>
+      <c r="AM29" s="16">
+        <v>0</v>
+      </c>
+      <c r="AN29" s="16">
+        <v>100</v>
+      </c>
+      <c r="AO29" s="16">
+        <v>0</v>
+      </c>
+      <c r="AP29" s="16">
+        <v>0</v>
+      </c>
+      <c r="AQ29" s="16">
+        <v>0</v>
+      </c>
+      <c r="AR29" s="16">
+        <v>0</v>
+      </c>
+      <c r="AS29" s="16">
+        <v>0</v>
+      </c>
+      <c r="AT29" s="16">
+        <v>100</v>
+      </c>
+      <c r="AU29" s="16">
+        <v>0</v>
+      </c>
+      <c r="AV29" s="17">
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A30" s="61"/>
+    <row r="30" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A30" s="58"/>
       <c r="B30" s="46" t="s">
         <v>65</v>
       </c>
@@ -4130,63 +5026,91 @@
         <v>0</v>
       </c>
       <c r="J30" s="16">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K30" s="16">
         <v>0</v>
       </c>
-      <c r="L30" s="17">
-        <v>100</v>
-      </c>
-      <c r="M30" s="38"/>
-      <c r="N30" s="24"/>
-      <c r="O30" s="16"/>
-      <c r="P30" s="16"/>
-      <c r="Q30" s="16"/>
-      <c r="R30" s="16"/>
+      <c r="L30" s="16">
+        <v>0</v>
+      </c>
+      <c r="M30" s="16">
+        <v>0</v>
+      </c>
+      <c r="N30" s="16">
+        <v>100</v>
+      </c>
+      <c r="O30" s="16">
+        <v>0</v>
+      </c>
+      <c r="P30" s="17">
+        <v>100</v>
+      </c>
+      <c r="Q30" s="38"/>
+      <c r="R30" s="24"/>
       <c r="S30" s="16"/>
       <c r="T30" s="16"/>
       <c r="U30" s="16"/>
       <c r="V30" s="16"/>
       <c r="W30" s="16"/>
-      <c r="X30" s="17"/>
-      <c r="Y30" s="62"/>
-      <c r="Z30" s="47" t="s">
+      <c r="X30" s="16"/>
+      <c r="Y30" s="16"/>
+      <c r="Z30" s="16"/>
+      <c r="AA30" s="16"/>
+      <c r="AB30" s="16"/>
+      <c r="AC30" s="16"/>
+      <c r="AD30" s="16"/>
+      <c r="AE30" s="16"/>
+      <c r="AF30" s="17"/>
+      <c r="AG30" s="59"/>
+      <c r="AH30" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="AA30" s="13">
-        <v>0</v>
-      </c>
-      <c r="AB30" s="13">
-        <v>100</v>
-      </c>
-      <c r="AC30" s="13">
-        <v>0</v>
-      </c>
-      <c r="AD30" s="13">
-        <v>100</v>
-      </c>
-      <c r="AE30" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF30" s="13">
-        <v>100</v>
-      </c>
-      <c r="AG30" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH30" s="13">
-        <v>100</v>
-      </c>
       <c r="AI30" s="13">
         <v>0</v>
       </c>
-      <c r="AJ30" s="18">
+      <c r="AJ30" s="13">
+        <v>100</v>
+      </c>
+      <c r="AK30" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL30" s="13">
+        <v>100</v>
+      </c>
+      <c r="AM30" s="13">
+        <v>0</v>
+      </c>
+      <c r="AN30" s="13">
+        <v>100</v>
+      </c>
+      <c r="AO30" s="13">
+        <v>0</v>
+      </c>
+      <c r="AP30" s="13">
+        <v>0</v>
+      </c>
+      <c r="AQ30" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR30" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS30" s="13">
+        <v>0</v>
+      </c>
+      <c r="AT30" s="13">
+        <v>100</v>
+      </c>
+      <c r="AU30" s="13">
+        <v>0</v>
+      </c>
+      <c r="AV30" s="18">
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A31" s="61"/>
+    <row r="31" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A31" s="58"/>
       <c r="B31" s="46" t="s">
         <v>67</v>
       </c>
@@ -4212,65 +5136,93 @@
         <v>0</v>
       </c>
       <c r="J31" s="16">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K31" s="16">
         <v>0</v>
       </c>
-      <c r="L31" s="17">
-        <v>100</v>
-      </c>
-      <c r="M31" s="38"/>
-      <c r="N31" s="24"/>
-      <c r="O31" s="16"/>
-      <c r="P31" s="16"/>
-      <c r="Q31" s="16"/>
-      <c r="R31" s="16"/>
+      <c r="L31" s="16">
+        <v>0</v>
+      </c>
+      <c r="M31" s="16">
+        <v>0</v>
+      </c>
+      <c r="N31" s="16">
+        <v>100</v>
+      </c>
+      <c r="O31" s="16">
+        <v>0</v>
+      </c>
+      <c r="P31" s="17">
+        <v>100</v>
+      </c>
+      <c r="Q31" s="38"/>
+      <c r="R31" s="24"/>
       <c r="S31" s="16"/>
       <c r="T31" s="16"/>
       <c r="U31" s="16"/>
       <c r="V31" s="16"/>
       <c r="W31" s="16"/>
-      <c r="X31" s="17"/>
-      <c r="Y31" s="60" t="s">
+      <c r="X31" s="16"/>
+      <c r="Y31" s="16"/>
+      <c r="Z31" s="16"/>
+      <c r="AA31" s="16"/>
+      <c r="AB31" s="16"/>
+      <c r="AC31" s="16"/>
+      <c r="AD31" s="16"/>
+      <c r="AE31" s="16"/>
+      <c r="AF31" s="17"/>
+      <c r="AG31" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="Z31" s="44" t="s">
+      <c r="AH31" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="AA31" s="12">
-        <v>0</v>
-      </c>
-      <c r="AB31" s="12">
-        <v>100</v>
-      </c>
-      <c r="AC31" s="12">
-        <v>0</v>
-      </c>
-      <c r="AD31" s="12">
-        <v>100</v>
-      </c>
-      <c r="AE31" s="12">
-        <v>0</v>
-      </c>
-      <c r="AF31" s="12">
-        <v>100</v>
-      </c>
-      <c r="AG31" s="12">
-        <v>0</v>
-      </c>
-      <c r="AH31" s="12">
-        <v>100</v>
-      </c>
       <c r="AI31" s="12">
         <v>0</v>
       </c>
-      <c r="AJ31" s="19">
+      <c r="AJ31" s="12">
+        <v>100</v>
+      </c>
+      <c r="AK31" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL31" s="12">
+        <v>100</v>
+      </c>
+      <c r="AM31" s="12">
+        <v>0</v>
+      </c>
+      <c r="AN31" s="12">
+        <v>100</v>
+      </c>
+      <c r="AO31" s="12">
+        <v>0</v>
+      </c>
+      <c r="AP31" s="12">
+        <v>0</v>
+      </c>
+      <c r="AQ31" s="12">
+        <v>0</v>
+      </c>
+      <c r="AR31" s="12">
+        <v>0</v>
+      </c>
+      <c r="AS31" s="12">
+        <v>0</v>
+      </c>
+      <c r="AT31" s="12">
+        <v>100</v>
+      </c>
+      <c r="AU31" s="12">
+        <v>0</v>
+      </c>
+      <c r="AV31" s="19">
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A32" s="61"/>
+    <row r="32" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A32" s="58"/>
       <c r="B32" s="46" t="s">
         <v>68</v>
       </c>
@@ -4296,63 +5248,91 @@
         <v>0</v>
       </c>
       <c r="J32" s="16">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K32" s="16">
         <v>0</v>
       </c>
-      <c r="L32" s="17">
-        <v>100</v>
-      </c>
-      <c r="M32" s="38"/>
-      <c r="N32" s="24"/>
-      <c r="O32" s="16"/>
-      <c r="P32" s="16"/>
-      <c r="Q32" s="16"/>
-      <c r="R32" s="16"/>
+      <c r="L32" s="16">
+        <v>0</v>
+      </c>
+      <c r="M32" s="16">
+        <v>0</v>
+      </c>
+      <c r="N32" s="16">
+        <v>100</v>
+      </c>
+      <c r="O32" s="16">
+        <v>0</v>
+      </c>
+      <c r="P32" s="17">
+        <v>100</v>
+      </c>
+      <c r="Q32" s="38"/>
+      <c r="R32" s="24"/>
       <c r="S32" s="16"/>
       <c r="T32" s="16"/>
       <c r="U32" s="16"/>
       <c r="V32" s="16"/>
       <c r="W32" s="16"/>
-      <c r="X32" s="17"/>
-      <c r="Y32" s="61"/>
-      <c r="Z32" s="46" t="s">
+      <c r="X32" s="16"/>
+      <c r="Y32" s="16"/>
+      <c r="Z32" s="16"/>
+      <c r="AA32" s="16"/>
+      <c r="AB32" s="16"/>
+      <c r="AC32" s="16"/>
+      <c r="AD32" s="16"/>
+      <c r="AE32" s="16"/>
+      <c r="AF32" s="17"/>
+      <c r="AG32" s="58"/>
+      <c r="AH32" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="AA32" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB32" s="16">
-        <v>100</v>
-      </c>
-      <c r="AC32" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD32" s="16">
-        <v>100</v>
-      </c>
-      <c r="AE32" s="16">
-        <v>0</v>
-      </c>
-      <c r="AF32" s="16">
-        <v>100</v>
-      </c>
-      <c r="AG32" s="16">
-        <v>0</v>
-      </c>
-      <c r="AH32" s="16">
-        <v>100</v>
-      </c>
       <c r="AI32" s="16">
         <v>0</v>
       </c>
-      <c r="AJ32" s="17">
+      <c r="AJ32" s="16">
+        <v>100</v>
+      </c>
+      <c r="AK32" s="16">
+        <v>0</v>
+      </c>
+      <c r="AL32" s="16">
+        <v>100</v>
+      </c>
+      <c r="AM32" s="16">
+        <v>0</v>
+      </c>
+      <c r="AN32" s="16">
+        <v>100</v>
+      </c>
+      <c r="AO32" s="16">
+        <v>0</v>
+      </c>
+      <c r="AP32" s="16">
+        <v>0</v>
+      </c>
+      <c r="AQ32" s="16">
+        <v>0</v>
+      </c>
+      <c r="AR32" s="16">
+        <v>0</v>
+      </c>
+      <c r="AS32" s="16">
+        <v>0</v>
+      </c>
+      <c r="AT32" s="16">
+        <v>100</v>
+      </c>
+      <c r="AU32" s="16">
+        <v>0</v>
+      </c>
+      <c r="AV32" s="17">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A33" s="61"/>
+    <row r="33" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A33" s="58"/>
       <c r="B33" s="46" t="s">
         <v>69</v>
       </c>
@@ -4378,63 +5358,91 @@
         <v>0</v>
       </c>
       <c r="J33" s="16">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K33" s="16">
         <v>0</v>
       </c>
-      <c r="L33" s="17">
-        <v>100</v>
-      </c>
-      <c r="M33" s="38"/>
-      <c r="N33" s="24"/>
-      <c r="O33" s="16"/>
-      <c r="P33" s="16"/>
-      <c r="Q33" s="16"/>
-      <c r="R33" s="16"/>
+      <c r="L33" s="16">
+        <v>0</v>
+      </c>
+      <c r="M33" s="16">
+        <v>0</v>
+      </c>
+      <c r="N33" s="16">
+        <v>100</v>
+      </c>
+      <c r="O33" s="16">
+        <v>0</v>
+      </c>
+      <c r="P33" s="17">
+        <v>100</v>
+      </c>
+      <c r="Q33" s="38"/>
+      <c r="R33" s="24"/>
       <c r="S33" s="16"/>
       <c r="T33" s="16"/>
       <c r="U33" s="16"/>
       <c r="V33" s="16"/>
       <c r="W33" s="16"/>
-      <c r="X33" s="17"/>
-      <c r="Y33" s="62"/>
-      <c r="Z33" s="46" t="s">
+      <c r="X33" s="16"/>
+      <c r="Y33" s="16"/>
+      <c r="Z33" s="16"/>
+      <c r="AA33" s="16"/>
+      <c r="AB33" s="16"/>
+      <c r="AC33" s="16"/>
+      <c r="AD33" s="16"/>
+      <c r="AE33" s="16"/>
+      <c r="AF33" s="17"/>
+      <c r="AG33" s="59"/>
+      <c r="AH33" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="AA33" s="13">
-        <v>0</v>
-      </c>
-      <c r="AB33" s="13">
-        <v>100</v>
-      </c>
-      <c r="AC33" s="13">
-        <v>0</v>
-      </c>
-      <c r="AD33" s="13">
-        <v>100</v>
-      </c>
-      <c r="AE33" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF33" s="13">
-        <v>100</v>
-      </c>
-      <c r="AG33" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH33" s="13">
-        <v>100</v>
-      </c>
       <c r="AI33" s="13">
         <v>0</v>
       </c>
-      <c r="AJ33" s="18">
+      <c r="AJ33" s="13">
+        <v>100</v>
+      </c>
+      <c r="AK33" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL33" s="13">
+        <v>100</v>
+      </c>
+      <c r="AM33" s="13">
+        <v>0</v>
+      </c>
+      <c r="AN33" s="13">
+        <v>100</v>
+      </c>
+      <c r="AO33" s="13">
+        <v>0</v>
+      </c>
+      <c r="AP33" s="13">
+        <v>0</v>
+      </c>
+      <c r="AQ33" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR33" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS33" s="13">
+        <v>0</v>
+      </c>
+      <c r="AT33" s="13">
+        <v>100</v>
+      </c>
+      <c r="AU33" s="13">
+        <v>0</v>
+      </c>
+      <c r="AV33" s="18">
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A34" s="61"/>
+    <row r="34" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A34" s="58"/>
       <c r="B34" s="46" t="s">
         <v>70</v>
       </c>
@@ -4460,30 +5468,46 @@
         <v>0</v>
       </c>
       <c r="J34" s="16">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K34" s="16">
         <v>0</v>
       </c>
-      <c r="L34" s="17">
-        <v>100</v>
-      </c>
-      <c r="M34" s="38"/>
-      <c r="N34" s="24"/>
-      <c r="O34" s="16"/>
-      <c r="P34" s="16"/>
-      <c r="Q34" s="16"/>
-      <c r="R34" s="16"/>
+      <c r="L34" s="16">
+        <v>0</v>
+      </c>
+      <c r="M34" s="16">
+        <v>0</v>
+      </c>
+      <c r="N34" s="16">
+        <v>100</v>
+      </c>
+      <c r="O34" s="16">
+        <v>0</v>
+      </c>
+      <c r="P34" s="17">
+        <v>100</v>
+      </c>
+      <c r="Q34" s="38"/>
+      <c r="R34" s="24"/>
       <c r="S34" s="16"/>
       <c r="T34" s="16"/>
       <c r="U34" s="16"/>
       <c r="V34" s="16"/>
       <c r="W34" s="16"/>
-      <c r="X34" s="17"/>
-      <c r="Z34" s="23"/>
+      <c r="X34" s="16"/>
+      <c r="Y34" s="16"/>
+      <c r="Z34" s="16"/>
+      <c r="AA34" s="16"/>
+      <c r="AB34" s="16"/>
+      <c r="AC34" s="16"/>
+      <c r="AD34" s="16"/>
+      <c r="AE34" s="16"/>
+      <c r="AF34" s="17"/>
+      <c r="AH34" s="23"/>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A35" s="62"/>
+    <row r="35" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A35" s="59"/>
       <c r="B35" s="47" t="s">
         <v>71</v>
       </c>
@@ -4509,30 +5533,46 @@
         <v>0</v>
       </c>
       <c r="J35" s="13">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K35" s="13">
         <v>0</v>
       </c>
-      <c r="L35" s="18">
-        <v>100</v>
-      </c>
-      <c r="M35" s="16"/>
-      <c r="N35" s="24"/>
-      <c r="O35" s="16"/>
-      <c r="P35" s="16"/>
+      <c r="L35" s="13">
+        <v>0</v>
+      </c>
+      <c r="M35" s="13">
+        <v>0</v>
+      </c>
+      <c r="N35" s="13">
+        <v>100</v>
+      </c>
+      <c r="O35" s="13">
+        <v>0</v>
+      </c>
+      <c r="P35" s="18">
+        <v>100</v>
+      </c>
       <c r="Q35" s="16"/>
-      <c r="R35" s="16"/>
+      <c r="R35" s="24"/>
       <c r="S35" s="16"/>
       <c r="T35" s="16"/>
       <c r="U35" s="16"/>
       <c r="V35" s="16"/>
       <c r="W35" s="16"/>
-      <c r="X35" s="17"/>
-      <c r="Z35" s="93"/>
+      <c r="X35" s="16"/>
+      <c r="Y35" s="16"/>
+      <c r="Z35" s="16"/>
+      <c r="AA35" s="16"/>
+      <c r="AB35" s="16"/>
+      <c r="AC35" s="16"/>
+      <c r="AD35" s="16"/>
+      <c r="AE35" s="16"/>
+      <c r="AF35" s="17"/>
+      <c r="AH35" s="22"/>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A36" s="60" t="s">
+    <row r="36" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A36" s="57" t="s">
         <v>72</v>
       </c>
       <c r="B36" s="43" t="s">
@@ -4560,32 +5600,48 @@
         <v>0</v>
       </c>
       <c r="J36" s="16">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K36" s="16">
         <v>0</v>
       </c>
-      <c r="L36" s="17">
-        <v>100</v>
-      </c>
-      <c r="M36" s="16"/>
-      <c r="N36" s="24"/>
-      <c r="O36" s="16"/>
-      <c r="P36" s="16"/>
+      <c r="L36" s="16">
+        <v>0</v>
+      </c>
+      <c r="M36" s="16">
+        <v>0</v>
+      </c>
+      <c r="N36" s="16">
+        <v>100</v>
+      </c>
+      <c r="O36" s="16">
+        <v>0</v>
+      </c>
+      <c r="P36" s="17">
+        <v>100</v>
+      </c>
       <c r="Q36" s="16"/>
-      <c r="R36" s="16"/>
+      <c r="R36" s="24"/>
       <c r="S36" s="16"/>
       <c r="T36" s="16"/>
       <c r="U36" s="16"/>
       <c r="V36" s="16"/>
       <c r="W36" s="16"/>
-      <c r="X36" s="17"/>
-      <c r="Y36" s="36"/>
-      <c r="Z36" s="22"/>
-      <c r="AJ36" s="37"/>
+      <c r="X36" s="16"/>
+      <c r="Y36" s="16"/>
+      <c r="Z36" s="16"/>
+      <c r="AA36" s="16"/>
+      <c r="AB36" s="16"/>
+      <c r="AC36" s="16"/>
+      <c r="AD36" s="16"/>
+      <c r="AE36" s="16"/>
+      <c r="AF36" s="17"/>
+      <c r="AG36" s="36"/>
+      <c r="AH36" s="22"/>
+      <c r="AV36" s="37"/>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A37" s="61"/>
+    <row r="37" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A37" s="58"/>
       <c r="B37" s="46" t="s">
         <v>49</v>
       </c>
@@ -4611,32 +5667,48 @@
         <v>0</v>
       </c>
       <c r="J37" s="16">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K37" s="16">
         <v>0</v>
       </c>
-      <c r="L37" s="17">
-        <v>100</v>
-      </c>
-      <c r="M37" s="16"/>
-      <c r="N37" s="24"/>
-      <c r="O37" s="16"/>
-      <c r="P37" s="16"/>
+      <c r="L37" s="16">
+        <v>0</v>
+      </c>
+      <c r="M37" s="16">
+        <v>0</v>
+      </c>
+      <c r="N37" s="16">
+        <v>100</v>
+      </c>
+      <c r="O37" s="16">
+        <v>0</v>
+      </c>
+      <c r="P37" s="17">
+        <v>100</v>
+      </c>
       <c r="Q37" s="16"/>
-      <c r="R37" s="16"/>
+      <c r="R37" s="24"/>
       <c r="S37" s="16"/>
       <c r="T37" s="16"/>
       <c r="U37" s="16"/>
       <c r="V37" s="16"/>
       <c r="W37" s="16"/>
-      <c r="X37" s="17"/>
-      <c r="Y37" s="36"/>
-      <c r="Z37" s="22"/>
-      <c r="AJ37" s="37"/>
+      <c r="X37" s="16"/>
+      <c r="Y37" s="16"/>
+      <c r="Z37" s="16"/>
+      <c r="AA37" s="16"/>
+      <c r="AB37" s="16"/>
+      <c r="AC37" s="16"/>
+      <c r="AD37" s="16"/>
+      <c r="AE37" s="16"/>
+      <c r="AF37" s="17"/>
+      <c r="AG37" s="36"/>
+      <c r="AH37" s="22"/>
+      <c r="AV37" s="37"/>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A38" s="61"/>
+    <row r="38" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A38" s="58"/>
       <c r="B38" s="46" t="s">
         <v>52</v>
       </c>
@@ -4662,41 +5734,61 @@
         <v>0</v>
       </c>
       <c r="J38" s="16">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K38" s="16">
         <v>0</v>
       </c>
-      <c r="L38" s="17">
-        <v>100</v>
-      </c>
-      <c r="M38" s="16"/>
-      <c r="N38" s="24"/>
-      <c r="O38" s="16"/>
-      <c r="P38" s="16"/>
+      <c r="L38" s="16">
+        <v>0</v>
+      </c>
+      <c r="M38" s="16">
+        <v>0</v>
+      </c>
+      <c r="N38" s="16">
+        <v>100</v>
+      </c>
+      <c r="O38" s="16">
+        <v>0</v>
+      </c>
+      <c r="P38" s="17">
+        <v>100</v>
+      </c>
       <c r="Q38" s="16"/>
-      <c r="R38" s="16"/>
+      <c r="R38" s="24"/>
       <c r="S38" s="16"/>
       <c r="T38" s="16"/>
       <c r="U38" s="16"/>
       <c r="V38" s="16"/>
       <c r="W38" s="16"/>
-      <c r="X38" s="17"/>
-      <c r="Y38" s="25"/>
-      <c r="Z38" s="24"/>
+      <c r="X38" s="16"/>
+      <c r="Y38" s="16"/>
+      <c r="Z38" s="16"/>
       <c r="AA38" s="16"/>
       <c r="AB38" s="16"/>
       <c r="AC38" s="16"/>
       <c r="AD38" s="16"/>
       <c r="AE38" s="16"/>
-      <c r="AF38" s="16"/>
-      <c r="AG38" s="16"/>
-      <c r="AH38" s="16"/>
+      <c r="AF38" s="17"/>
+      <c r="AG38" s="25"/>
+      <c r="AH38" s="24"/>
       <c r="AI38" s="16"/>
-      <c r="AJ38" s="17"/>
+      <c r="AJ38" s="16"/>
+      <c r="AK38" s="16"/>
+      <c r="AL38" s="16"/>
+      <c r="AM38" s="16"/>
+      <c r="AN38" s="16"/>
+      <c r="AO38" s="16"/>
+      <c r="AP38" s="16"/>
+      <c r="AQ38" s="16"/>
+      <c r="AR38" s="16"/>
+      <c r="AS38" s="16"/>
+      <c r="AT38" s="16"/>
+      <c r="AU38" s="16"/>
+      <c r="AV38" s="17"/>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A39" s="61"/>
+    <row r="39" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A39" s="58"/>
       <c r="B39" s="46" t="s">
         <v>61</v>
       </c>
@@ -4722,41 +5814,61 @@
         <v>0</v>
       </c>
       <c r="J39" s="16">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K39" s="16">
         <v>0</v>
       </c>
-      <c r="L39" s="17">
-        <v>100</v>
-      </c>
-      <c r="M39" s="16"/>
-      <c r="N39" s="24"/>
-      <c r="O39" s="16"/>
-      <c r="P39" s="16"/>
+      <c r="L39" s="16">
+        <v>0</v>
+      </c>
+      <c r="M39" s="16">
+        <v>0</v>
+      </c>
+      <c r="N39" s="16">
+        <v>100</v>
+      </c>
+      <c r="O39" s="16">
+        <v>0</v>
+      </c>
+      <c r="P39" s="17">
+        <v>100</v>
+      </c>
       <c r="Q39" s="16"/>
-      <c r="R39" s="16"/>
+      <c r="R39" s="24"/>
       <c r="S39" s="16"/>
       <c r="T39" s="16"/>
       <c r="U39" s="16"/>
       <c r="V39" s="16"/>
       <c r="W39" s="16"/>
-      <c r="X39" s="17"/>
-      <c r="Y39" s="25"/>
-      <c r="Z39" s="24"/>
+      <c r="X39" s="16"/>
+      <c r="Y39" s="16"/>
+      <c r="Z39" s="16"/>
       <c r="AA39" s="16"/>
       <c r="AB39" s="16"/>
       <c r="AC39" s="16"/>
       <c r="AD39" s="16"/>
       <c r="AE39" s="16"/>
-      <c r="AF39" s="16"/>
-      <c r="AG39" s="16"/>
-      <c r="AH39" s="16"/>
+      <c r="AF39" s="17"/>
+      <c r="AG39" s="25"/>
+      <c r="AH39" s="24"/>
       <c r="AI39" s="16"/>
-      <c r="AJ39" s="17"/>
+      <c r="AJ39" s="16"/>
+      <c r="AK39" s="16"/>
+      <c r="AL39" s="16"/>
+      <c r="AM39" s="16"/>
+      <c r="AN39" s="16"/>
+      <c r="AO39" s="16"/>
+      <c r="AP39" s="16"/>
+      <c r="AQ39" s="16"/>
+      <c r="AR39" s="16"/>
+      <c r="AS39" s="16"/>
+      <c r="AT39" s="16"/>
+      <c r="AU39" s="16"/>
+      <c r="AV39" s="17"/>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A40" s="61"/>
+    <row r="40" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A40" s="58"/>
       <c r="B40" s="46" t="s">
         <v>74</v>
       </c>
@@ -4782,41 +5894,61 @@
         <v>0</v>
       </c>
       <c r="J40" s="16">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K40" s="16">
         <v>0</v>
       </c>
-      <c r="L40" s="17">
-        <v>100</v>
-      </c>
-      <c r="M40" s="16"/>
-      <c r="N40" s="24"/>
-      <c r="O40" s="16"/>
-      <c r="P40" s="16"/>
+      <c r="L40" s="16">
+        <v>0</v>
+      </c>
+      <c r="M40" s="16">
+        <v>0</v>
+      </c>
+      <c r="N40" s="16">
+        <v>100</v>
+      </c>
+      <c r="O40" s="16">
+        <v>0</v>
+      </c>
+      <c r="P40" s="17">
+        <v>100</v>
+      </c>
       <c r="Q40" s="16"/>
-      <c r="R40" s="16"/>
+      <c r="R40" s="24"/>
       <c r="S40" s="16"/>
       <c r="T40" s="16"/>
       <c r="U40" s="16"/>
       <c r="V40" s="16"/>
       <c r="W40" s="16"/>
-      <c r="X40" s="17"/>
-      <c r="Y40" s="25"/>
-      <c r="Z40" s="24"/>
+      <c r="X40" s="16"/>
+      <c r="Y40" s="16"/>
+      <c r="Z40" s="16"/>
       <c r="AA40" s="16"/>
       <c r="AB40" s="16"/>
       <c r="AC40" s="16"/>
       <c r="AD40" s="16"/>
       <c r="AE40" s="16"/>
-      <c r="AF40" s="16"/>
-      <c r="AG40" s="16"/>
-      <c r="AH40" s="16"/>
+      <c r="AF40" s="17"/>
+      <c r="AG40" s="25"/>
+      <c r="AH40" s="24"/>
       <c r="AI40" s="16"/>
-      <c r="AJ40" s="17"/>
+      <c r="AJ40" s="16"/>
+      <c r="AK40" s="16"/>
+      <c r="AL40" s="16"/>
+      <c r="AM40" s="16"/>
+      <c r="AN40" s="16"/>
+      <c r="AO40" s="16"/>
+      <c r="AP40" s="16"/>
+      <c r="AQ40" s="16"/>
+      <c r="AR40" s="16"/>
+      <c r="AS40" s="16"/>
+      <c r="AT40" s="16"/>
+      <c r="AU40" s="16"/>
+      <c r="AV40" s="17"/>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A41" s="61"/>
+    <row r="41" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A41" s="58"/>
       <c r="B41" s="46" t="s">
         <v>65</v>
       </c>
@@ -4842,41 +5974,61 @@
         <v>0</v>
       </c>
       <c r="J41" s="16">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K41" s="16">
         <v>0</v>
       </c>
-      <c r="L41" s="17">
-        <v>100</v>
-      </c>
-      <c r="M41" s="16"/>
-      <c r="N41" s="24"/>
-      <c r="O41" s="16"/>
-      <c r="P41" s="16"/>
+      <c r="L41" s="16">
+        <v>0</v>
+      </c>
+      <c r="M41" s="16">
+        <v>0</v>
+      </c>
+      <c r="N41" s="16">
+        <v>100</v>
+      </c>
+      <c r="O41" s="16">
+        <v>0</v>
+      </c>
+      <c r="P41" s="17">
+        <v>100</v>
+      </c>
       <c r="Q41" s="16"/>
-      <c r="R41" s="16"/>
+      <c r="R41" s="24"/>
       <c r="S41" s="16"/>
       <c r="T41" s="16"/>
       <c r="U41" s="16"/>
       <c r="V41" s="16"/>
       <c r="W41" s="16"/>
-      <c r="X41" s="17"/>
-      <c r="Y41" s="25"/>
-      <c r="Z41" s="24"/>
+      <c r="X41" s="16"/>
+      <c r="Y41" s="16"/>
+      <c r="Z41" s="16"/>
       <c r="AA41" s="16"/>
       <c r="AB41" s="16"/>
       <c r="AC41" s="16"/>
       <c r="AD41" s="16"/>
       <c r="AE41" s="16"/>
-      <c r="AF41" s="16"/>
-      <c r="AG41" s="16"/>
-      <c r="AH41" s="16"/>
+      <c r="AF41" s="17"/>
+      <c r="AG41" s="25"/>
+      <c r="AH41" s="24"/>
       <c r="AI41" s="16"/>
-      <c r="AJ41" s="17"/>
+      <c r="AJ41" s="16"/>
+      <c r="AK41" s="16"/>
+      <c r="AL41" s="16"/>
+      <c r="AM41" s="16"/>
+      <c r="AN41" s="16"/>
+      <c r="AO41" s="16"/>
+      <c r="AP41" s="16"/>
+      <c r="AQ41" s="16"/>
+      <c r="AR41" s="16"/>
+      <c r="AS41" s="16"/>
+      <c r="AT41" s="16"/>
+      <c r="AU41" s="16"/>
+      <c r="AV41" s="17"/>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A42" s="61"/>
+    <row r="42" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A42" s="58"/>
       <c r="B42" s="46" t="s">
         <v>67</v>
       </c>
@@ -4902,41 +6054,61 @@
         <v>0</v>
       </c>
       <c r="J42" s="16">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K42" s="16">
         <v>0</v>
       </c>
-      <c r="L42" s="17">
-        <v>100</v>
-      </c>
-      <c r="M42" s="16"/>
-      <c r="N42" s="24"/>
-      <c r="O42" s="16"/>
-      <c r="P42" s="16"/>
+      <c r="L42" s="16">
+        <v>0</v>
+      </c>
+      <c r="M42" s="16">
+        <v>0</v>
+      </c>
+      <c r="N42" s="16">
+        <v>100</v>
+      </c>
+      <c r="O42" s="16">
+        <v>0</v>
+      </c>
+      <c r="P42" s="17">
+        <v>100</v>
+      </c>
       <c r="Q42" s="16"/>
-      <c r="R42" s="16"/>
+      <c r="R42" s="24"/>
       <c r="S42" s="16"/>
       <c r="T42" s="16"/>
       <c r="U42" s="16"/>
       <c r="V42" s="16"/>
       <c r="W42" s="16"/>
-      <c r="X42" s="17"/>
-      <c r="Y42" s="25"/>
-      <c r="Z42" s="24"/>
+      <c r="X42" s="16"/>
+      <c r="Y42" s="16"/>
+      <c r="Z42" s="16"/>
       <c r="AA42" s="16"/>
       <c r="AB42" s="16"/>
       <c r="AC42" s="16"/>
       <c r="AD42" s="16"/>
       <c r="AE42" s="16"/>
-      <c r="AF42" s="16"/>
-      <c r="AG42" s="16"/>
-      <c r="AH42" s="16"/>
+      <c r="AF42" s="17"/>
+      <c r="AG42" s="25"/>
+      <c r="AH42" s="24"/>
       <c r="AI42" s="16"/>
-      <c r="AJ42" s="17"/>
+      <c r="AJ42" s="16"/>
+      <c r="AK42" s="16"/>
+      <c r="AL42" s="16"/>
+      <c r="AM42" s="16"/>
+      <c r="AN42" s="16"/>
+      <c r="AO42" s="16"/>
+      <c r="AP42" s="16"/>
+      <c r="AQ42" s="16"/>
+      <c r="AR42" s="16"/>
+      <c r="AS42" s="16"/>
+      <c r="AT42" s="16"/>
+      <c r="AU42" s="16"/>
+      <c r="AV42" s="17"/>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A43" s="61"/>
+    <row r="43" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A43" s="58"/>
       <c r="B43" s="46" t="s">
         <v>68</v>
       </c>
@@ -4962,41 +6134,61 @@
         <v>0</v>
       </c>
       <c r="J43" s="16">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K43" s="16">
         <v>0</v>
       </c>
-      <c r="L43" s="17">
-        <v>100</v>
-      </c>
-      <c r="M43" s="16"/>
-      <c r="N43" s="24"/>
-      <c r="O43" s="16"/>
-      <c r="P43" s="16"/>
+      <c r="L43" s="16">
+        <v>0</v>
+      </c>
+      <c r="M43" s="16">
+        <v>0</v>
+      </c>
+      <c r="N43" s="16">
+        <v>100</v>
+      </c>
+      <c r="O43" s="16">
+        <v>0</v>
+      </c>
+      <c r="P43" s="17">
+        <v>100</v>
+      </c>
       <c r="Q43" s="16"/>
-      <c r="R43" s="16"/>
+      <c r="R43" s="24"/>
       <c r="S43" s="16"/>
       <c r="T43" s="16"/>
       <c r="U43" s="16"/>
       <c r="V43" s="16"/>
       <c r="W43" s="16"/>
-      <c r="X43" s="17"/>
-      <c r="Y43" s="25"/>
-      <c r="Z43" s="24"/>
+      <c r="X43" s="16"/>
+      <c r="Y43" s="16"/>
+      <c r="Z43" s="16"/>
       <c r="AA43" s="16"/>
       <c r="AB43" s="16"/>
       <c r="AC43" s="16"/>
       <c r="AD43" s="16"/>
       <c r="AE43" s="16"/>
-      <c r="AF43" s="16"/>
-      <c r="AG43" s="16"/>
-      <c r="AH43" s="16"/>
+      <c r="AF43" s="17"/>
+      <c r="AG43" s="25"/>
+      <c r="AH43" s="24"/>
       <c r="AI43" s="16"/>
-      <c r="AJ43" s="17"/>
+      <c r="AJ43" s="16"/>
+      <c r="AK43" s="16"/>
+      <c r="AL43" s="16"/>
+      <c r="AM43" s="16"/>
+      <c r="AN43" s="16"/>
+      <c r="AO43" s="16"/>
+      <c r="AP43" s="16"/>
+      <c r="AQ43" s="16"/>
+      <c r="AR43" s="16"/>
+      <c r="AS43" s="16"/>
+      <c r="AT43" s="16"/>
+      <c r="AU43" s="16"/>
+      <c r="AV43" s="17"/>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A44" s="61"/>
+    <row r="44" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A44" s="58"/>
       <c r="B44" s="46" t="s">
         <v>69</v>
       </c>
@@ -5022,41 +6214,61 @@
         <v>0</v>
       </c>
       <c r="J44" s="16">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K44" s="16">
         <v>0</v>
       </c>
-      <c r="L44" s="17">
-        <v>100</v>
-      </c>
-      <c r="M44" s="16"/>
-      <c r="N44" s="24"/>
-      <c r="O44" s="16"/>
-      <c r="P44" s="16"/>
+      <c r="L44" s="16">
+        <v>0</v>
+      </c>
+      <c r="M44" s="16">
+        <v>0</v>
+      </c>
+      <c r="N44" s="16">
+        <v>100</v>
+      </c>
+      <c r="O44" s="16">
+        <v>0</v>
+      </c>
+      <c r="P44" s="17">
+        <v>100</v>
+      </c>
       <c r="Q44" s="16"/>
-      <c r="R44" s="16"/>
+      <c r="R44" s="24"/>
       <c r="S44" s="16"/>
       <c r="T44" s="16"/>
       <c r="U44" s="16"/>
       <c r="V44" s="16"/>
       <c r="W44" s="16"/>
-      <c r="X44" s="17"/>
-      <c r="Y44" s="25"/>
-      <c r="Z44" s="24"/>
+      <c r="X44" s="16"/>
+      <c r="Y44" s="16"/>
+      <c r="Z44" s="16"/>
       <c r="AA44" s="16"/>
       <c r="AB44" s="16"/>
       <c r="AC44" s="16"/>
       <c r="AD44" s="16"/>
       <c r="AE44" s="16"/>
-      <c r="AF44" s="16"/>
-      <c r="AG44" s="16"/>
-      <c r="AH44" s="16"/>
+      <c r="AF44" s="17"/>
+      <c r="AG44" s="25"/>
+      <c r="AH44" s="24"/>
       <c r="AI44" s="16"/>
-      <c r="AJ44" s="17"/>
+      <c r="AJ44" s="16"/>
+      <c r="AK44" s="16"/>
+      <c r="AL44" s="16"/>
+      <c r="AM44" s="16"/>
+      <c r="AN44" s="16"/>
+      <c r="AO44" s="16"/>
+      <c r="AP44" s="16"/>
+      <c r="AQ44" s="16"/>
+      <c r="AR44" s="16"/>
+      <c r="AS44" s="16"/>
+      <c r="AT44" s="16"/>
+      <c r="AU44" s="16"/>
+      <c r="AV44" s="17"/>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A45" s="61"/>
+    <row r="45" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A45" s="58"/>
       <c r="B45" s="46" t="s">
         <v>70</v>
       </c>
@@ -5082,41 +6294,61 @@
         <v>0</v>
       </c>
       <c r="J45" s="16">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K45" s="16">
         <v>0</v>
       </c>
-      <c r="L45" s="17">
-        <v>100</v>
-      </c>
-      <c r="M45" s="16"/>
-      <c r="N45" s="24"/>
-      <c r="O45" s="16"/>
-      <c r="P45" s="16"/>
+      <c r="L45" s="16">
+        <v>0</v>
+      </c>
+      <c r="M45" s="16">
+        <v>0</v>
+      </c>
+      <c r="N45" s="16">
+        <v>100</v>
+      </c>
+      <c r="O45" s="16">
+        <v>0</v>
+      </c>
+      <c r="P45" s="17">
+        <v>100</v>
+      </c>
       <c r="Q45" s="16"/>
-      <c r="R45" s="16"/>
+      <c r="R45" s="24"/>
       <c r="S45" s="16"/>
       <c r="T45" s="16"/>
       <c r="U45" s="16"/>
       <c r="V45" s="16"/>
       <c r="W45" s="16"/>
-      <c r="X45" s="17"/>
-      <c r="Y45" s="25"/>
-      <c r="Z45" s="24"/>
+      <c r="X45" s="16"/>
+      <c r="Y45" s="16"/>
+      <c r="Z45" s="16"/>
       <c r="AA45" s="16"/>
       <c r="AB45" s="16"/>
       <c r="AC45" s="16"/>
       <c r="AD45" s="16"/>
       <c r="AE45" s="16"/>
-      <c r="AF45" s="16"/>
-      <c r="AG45" s="16"/>
-      <c r="AH45" s="16"/>
+      <c r="AF45" s="17"/>
+      <c r="AG45" s="25"/>
+      <c r="AH45" s="24"/>
       <c r="AI45" s="16"/>
-      <c r="AJ45" s="17"/>
+      <c r="AJ45" s="16"/>
+      <c r="AK45" s="16"/>
+      <c r="AL45" s="16"/>
+      <c r="AM45" s="16"/>
+      <c r="AN45" s="16"/>
+      <c r="AO45" s="16"/>
+      <c r="AP45" s="16"/>
+      <c r="AQ45" s="16"/>
+      <c r="AR45" s="16"/>
+      <c r="AS45" s="16"/>
+      <c r="AT45" s="16"/>
+      <c r="AU45" s="16"/>
+      <c r="AV45" s="17"/>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A46" s="61"/>
+    <row r="46" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A46" s="58"/>
       <c r="B46" s="46" t="s">
         <v>71</v>
       </c>
@@ -5142,41 +6374,61 @@
         <v>0</v>
       </c>
       <c r="J46" s="16">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K46" s="16">
         <v>0</v>
       </c>
-      <c r="L46" s="17">
-        <v>100</v>
-      </c>
-      <c r="M46" s="16"/>
-      <c r="N46" s="24"/>
-      <c r="O46" s="16"/>
-      <c r="P46" s="16"/>
+      <c r="L46" s="16">
+        <v>0</v>
+      </c>
+      <c r="M46" s="16">
+        <v>0</v>
+      </c>
+      <c r="N46" s="16">
+        <v>100</v>
+      </c>
+      <c r="O46" s="16">
+        <v>0</v>
+      </c>
+      <c r="P46" s="17">
+        <v>100</v>
+      </c>
       <c r="Q46" s="16"/>
-      <c r="R46" s="16"/>
+      <c r="R46" s="24"/>
       <c r="S46" s="16"/>
       <c r="T46" s="16"/>
       <c r="U46" s="16"/>
       <c r="V46" s="16"/>
       <c r="W46" s="16"/>
-      <c r="X46" s="17"/>
-      <c r="Y46" s="25"/>
-      <c r="Z46" s="24"/>
+      <c r="X46" s="16"/>
+      <c r="Y46" s="16"/>
+      <c r="Z46" s="16"/>
       <c r="AA46" s="16"/>
       <c r="AB46" s="16"/>
       <c r="AC46" s="16"/>
       <c r="AD46" s="16"/>
       <c r="AE46" s="16"/>
-      <c r="AF46" s="16"/>
-      <c r="AG46" s="16"/>
-      <c r="AH46" s="16"/>
+      <c r="AF46" s="17"/>
+      <c r="AG46" s="25"/>
+      <c r="AH46" s="24"/>
       <c r="AI46" s="16"/>
-      <c r="AJ46" s="17"/>
+      <c r="AJ46" s="16"/>
+      <c r="AK46" s="16"/>
+      <c r="AL46" s="16"/>
+      <c r="AM46" s="16"/>
+      <c r="AN46" s="16"/>
+      <c r="AO46" s="16"/>
+      <c r="AP46" s="16"/>
+      <c r="AQ46" s="16"/>
+      <c r="AR46" s="16"/>
+      <c r="AS46" s="16"/>
+      <c r="AT46" s="16"/>
+      <c r="AU46" s="16"/>
+      <c r="AV46" s="17"/>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A47" s="61"/>
+    <row r="47" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A47" s="58"/>
       <c r="B47" s="46" t="s">
         <v>75</v>
       </c>
@@ -5202,41 +6454,61 @@
         <v>0</v>
       </c>
       <c r="J47" s="16">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K47" s="16">
         <v>0</v>
       </c>
-      <c r="L47" s="17">
-        <v>100</v>
-      </c>
-      <c r="M47" s="16"/>
-      <c r="N47" s="24"/>
-      <c r="O47" s="16"/>
-      <c r="P47" s="16"/>
+      <c r="L47" s="16">
+        <v>0</v>
+      </c>
+      <c r="M47" s="16">
+        <v>0</v>
+      </c>
+      <c r="N47" s="16">
+        <v>100</v>
+      </c>
+      <c r="O47" s="16">
+        <v>0</v>
+      </c>
+      <c r="P47" s="17">
+        <v>100</v>
+      </c>
       <c r="Q47" s="16"/>
-      <c r="R47" s="16"/>
+      <c r="R47" s="24"/>
       <c r="S47" s="16"/>
       <c r="T47" s="16"/>
       <c r="U47" s="16"/>
       <c r="V47" s="16"/>
       <c r="W47" s="16"/>
-      <c r="X47" s="17"/>
-      <c r="Y47" s="25"/>
-      <c r="Z47" s="24"/>
+      <c r="X47" s="16"/>
+      <c r="Y47" s="16"/>
+      <c r="Z47" s="16"/>
       <c r="AA47" s="16"/>
       <c r="AB47" s="16"/>
       <c r="AC47" s="16"/>
       <c r="AD47" s="16"/>
       <c r="AE47" s="16"/>
-      <c r="AF47" s="16"/>
-      <c r="AG47" s="16"/>
-      <c r="AH47" s="16"/>
+      <c r="AF47" s="17"/>
+      <c r="AG47" s="25"/>
+      <c r="AH47" s="24"/>
       <c r="AI47" s="16"/>
-      <c r="AJ47" s="17"/>
+      <c r="AJ47" s="16"/>
+      <c r="AK47" s="16"/>
+      <c r="AL47" s="16"/>
+      <c r="AM47" s="16"/>
+      <c r="AN47" s="16"/>
+      <c r="AO47" s="16"/>
+      <c r="AP47" s="16"/>
+      <c r="AQ47" s="16"/>
+      <c r="AR47" s="16"/>
+      <c r="AS47" s="16"/>
+      <c r="AT47" s="16"/>
+      <c r="AU47" s="16"/>
+      <c r="AV47" s="17"/>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A48" s="61"/>
+    <row r="48" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A48" s="58"/>
       <c r="B48" s="46" t="s">
         <v>76</v>
       </c>
@@ -5262,41 +6534,61 @@
         <v>0</v>
       </c>
       <c r="J48" s="16">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K48" s="16">
         <v>0</v>
       </c>
-      <c r="L48" s="17">
-        <v>100</v>
-      </c>
-      <c r="M48" s="16"/>
-      <c r="N48" s="24"/>
-      <c r="O48" s="16"/>
-      <c r="P48" s="16"/>
+      <c r="L48" s="16">
+        <v>0</v>
+      </c>
+      <c r="M48" s="16">
+        <v>0</v>
+      </c>
+      <c r="N48" s="16">
+        <v>100</v>
+      </c>
+      <c r="O48" s="16">
+        <v>0</v>
+      </c>
+      <c r="P48" s="17">
+        <v>100</v>
+      </c>
       <c r="Q48" s="16"/>
-      <c r="R48" s="16"/>
+      <c r="R48" s="24"/>
       <c r="S48" s="16"/>
       <c r="T48" s="16"/>
       <c r="U48" s="16"/>
       <c r="V48" s="16"/>
       <c r="W48" s="16"/>
-      <c r="X48" s="17"/>
-      <c r="Y48" s="25"/>
-      <c r="Z48" s="24"/>
+      <c r="X48" s="16"/>
+      <c r="Y48" s="16"/>
+      <c r="Z48" s="16"/>
       <c r="AA48" s="16"/>
       <c r="AB48" s="16"/>
       <c r="AC48" s="16"/>
       <c r="AD48" s="16"/>
       <c r="AE48" s="16"/>
-      <c r="AF48" s="16"/>
-      <c r="AG48" s="16"/>
-      <c r="AH48" s="16"/>
+      <c r="AF48" s="17"/>
+      <c r="AG48" s="25"/>
+      <c r="AH48" s="24"/>
       <c r="AI48" s="16"/>
-      <c r="AJ48" s="17"/>
+      <c r="AJ48" s="16"/>
+      <c r="AK48" s="16"/>
+      <c r="AL48" s="16"/>
+      <c r="AM48" s="16"/>
+      <c r="AN48" s="16"/>
+      <c r="AO48" s="16"/>
+      <c r="AP48" s="16"/>
+      <c r="AQ48" s="16"/>
+      <c r="AR48" s="16"/>
+      <c r="AS48" s="16"/>
+      <c r="AT48" s="16"/>
+      <c r="AU48" s="16"/>
+      <c r="AV48" s="17"/>
     </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A49" s="61"/>
+    <row r="49" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A49" s="58"/>
       <c r="B49" s="46" t="s">
         <v>77</v>
       </c>
@@ -5322,41 +6614,61 @@
         <v>0</v>
       </c>
       <c r="J49" s="16">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K49" s="16">
         <v>0</v>
       </c>
-      <c r="L49" s="17">
-        <v>100</v>
-      </c>
-      <c r="M49" s="16"/>
-      <c r="N49" s="24"/>
-      <c r="O49" s="16"/>
-      <c r="P49" s="16"/>
+      <c r="L49" s="16">
+        <v>0</v>
+      </c>
+      <c r="M49" s="16">
+        <v>0</v>
+      </c>
+      <c r="N49" s="16">
+        <v>100</v>
+      </c>
+      <c r="O49" s="16">
+        <v>0</v>
+      </c>
+      <c r="P49" s="17">
+        <v>100</v>
+      </c>
       <c r="Q49" s="16"/>
-      <c r="R49" s="16"/>
+      <c r="R49" s="24"/>
       <c r="S49" s="16"/>
       <c r="T49" s="16"/>
       <c r="U49" s="16"/>
       <c r="V49" s="16"/>
       <c r="W49" s="16"/>
-      <c r="X49" s="17"/>
-      <c r="Y49" s="25"/>
-      <c r="Z49" s="24"/>
+      <c r="X49" s="16"/>
+      <c r="Y49" s="16"/>
+      <c r="Z49" s="16"/>
       <c r="AA49" s="16"/>
       <c r="AB49" s="16"/>
       <c r="AC49" s="16"/>
       <c r="AD49" s="16"/>
       <c r="AE49" s="16"/>
-      <c r="AF49" s="16"/>
-      <c r="AG49" s="16"/>
-      <c r="AH49" s="16"/>
+      <c r="AF49" s="17"/>
+      <c r="AG49" s="25"/>
+      <c r="AH49" s="24"/>
       <c r="AI49" s="16"/>
-      <c r="AJ49" s="17"/>
+      <c r="AJ49" s="16"/>
+      <c r="AK49" s="16"/>
+      <c r="AL49" s="16"/>
+      <c r="AM49" s="16"/>
+      <c r="AN49" s="16"/>
+      <c r="AO49" s="16"/>
+      <c r="AP49" s="16"/>
+      <c r="AQ49" s="16"/>
+      <c r="AR49" s="16"/>
+      <c r="AS49" s="16"/>
+      <c r="AT49" s="16"/>
+      <c r="AU49" s="16"/>
+      <c r="AV49" s="17"/>
     </row>
-    <row r="50" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="76"/>
+    <row r="50" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="63"/>
       <c r="B50" s="48" t="s">
         <v>78</v>
       </c>
@@ -5382,72 +6694,98 @@
         <v>0</v>
       </c>
       <c r="J50" s="20">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K50" s="20">
         <v>0</v>
       </c>
-      <c r="L50" s="26">
-        <v>100</v>
-      </c>
-      <c r="M50" s="20"/>
-      <c r="N50" s="28"/>
-      <c r="O50" s="20"/>
-      <c r="P50" s="20"/>
+      <c r="L50" s="20">
+        <v>0</v>
+      </c>
+      <c r="M50" s="20">
+        <v>0</v>
+      </c>
+      <c r="N50" s="20">
+        <v>100</v>
+      </c>
+      <c r="O50" s="20">
+        <v>0</v>
+      </c>
+      <c r="P50" s="26">
+        <v>100</v>
+      </c>
       <c r="Q50" s="20"/>
-      <c r="R50" s="20"/>
+      <c r="R50" s="28"/>
       <c r="S50" s="20"/>
       <c r="T50" s="20"/>
       <c r="U50" s="20"/>
       <c r="V50" s="20"/>
       <c r="W50" s="20"/>
-      <c r="X50" s="26"/>
-      <c r="Y50" s="27"/>
-      <c r="Z50" s="28"/>
+      <c r="X50" s="20"/>
+      <c r="Y50" s="20"/>
+      <c r="Z50" s="20"/>
       <c r="AA50" s="20"/>
       <c r="AB50" s="20"/>
       <c r="AC50" s="20"/>
       <c r="AD50" s="20"/>
       <c r="AE50" s="20"/>
-      <c r="AF50" s="20"/>
-      <c r="AG50" s="20"/>
-      <c r="AH50" s="20"/>
+      <c r="AF50" s="26"/>
+      <c r="AG50" s="27"/>
+      <c r="AH50" s="28"/>
       <c r="AI50" s="20"/>
-      <c r="AJ50" s="26"/>
+      <c r="AJ50" s="20"/>
+      <c r="AK50" s="20"/>
+      <c r="AL50" s="20"/>
+      <c r="AM50" s="20"/>
+      <c r="AN50" s="20"/>
+      <c r="AO50" s="20"/>
+      <c r="AP50" s="20"/>
+      <c r="AQ50" s="20"/>
+      <c r="AR50" s="20"/>
+      <c r="AS50" s="20"/>
+      <c r="AT50" s="20"/>
+      <c r="AU50" s="20"/>
+      <c r="AV50" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="Y23:Y27"/>
-    <mergeCell ref="Y15:Y22"/>
-    <mergeCell ref="Y31:Y33"/>
-    <mergeCell ref="Y28:Y30"/>
-    <mergeCell ref="A36:A50"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="M1:X1"/>
-    <mergeCell ref="Y1:AJ1"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="Y4:Y11"/>
+  <mergeCells count="37">
+    <mergeCell ref="AO2:AP2"/>
+    <mergeCell ref="AQ2:AR2"/>
+    <mergeCell ref="AG4:AG11"/>
     <mergeCell ref="A22:A24"/>
     <mergeCell ref="A25:A35"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M4:M12"/>
-    <mergeCell ref="Y12:Y14"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q4:Q12"/>
+    <mergeCell ref="AG12:AG14"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A4:A17"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="AK2:AL2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="Q1:AF1"/>
+    <mergeCell ref="AG1:AV1"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="AU2:AV2"/>
+    <mergeCell ref="AS2:AT2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AG23:AG27"/>
+    <mergeCell ref="AG15:AG22"/>
+    <mergeCell ref="AG31:AG33"/>
+    <mergeCell ref="AG28:AG30"/>
+    <mergeCell ref="A36:A50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
